--- a/excel/mix_formulation.xlsx
+++ b/excel/mix_formulation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamilton\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFB5EFE-D679-46D2-B8B3-5D7FF94A23F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432E69E5-51B2-434E-B541-30620A689BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,8 +349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C100" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -377,10 +377,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-2.8983880518791011E-13</v>
+        <v>-6.3630923205812656E-14</v>
       </c>
       <c r="D2">
-        <v>-2.8983880518791011E-13</v>
+        <v>-6.3630923205812656E-14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -391,10 +391,10 @@
         <v>0.4000000000016648</v>
       </c>
       <c r="C3">
-        <v>0.34327573262051181</v>
+        <v>0.66859126097833466</v>
       </c>
       <c r="D3">
-        <v>0.12332901074348446</v>
+        <v>0.4486445391013073</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -405,10 +405,10 @@
         <v>0.80000000000333005</v>
       </c>
       <c r="C4">
-        <v>1.1118272987801117</v>
+        <v>0.34410881358874168</v>
       </c>
       <c r="D4">
-        <v>0.53599930519412164</v>
+        <v>-0.23171917999724834</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -419,10 +419,10 @@
         <v>1.2000000000049951</v>
       </c>
       <c r="C5">
-        <v>1.3640370559328743</v>
+        <v>2.2680942357830824</v>
       </c>
       <c r="D5">
-        <v>0.72741728356529289</v>
+        <v>1.631474463415501</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -433,10 +433,10 @@
         <v>1.6000000000066601</v>
       </c>
       <c r="C6">
-        <v>1.4569574523210094</v>
+        <v>-7.1481744071746706E-2</v>
       </c>
       <c r="D6">
-        <v>0.82033767995342799</v>
+        <v>-0.70810151643932806</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -447,10 +447,10 @@
         <v>2.0000000000082379</v>
       </c>
       <c r="C7">
-        <v>1.0678688550387267</v>
+        <v>2.3086733795160068</v>
       </c>
       <c r="D7">
-        <v>0.43124908267114537</v>
+        <v>1.6720536071484253</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -461,10 +461,10 @@
         <v>2.4000000000055501</v>
       </c>
       <c r="C8">
-        <v>1.1512243442650065</v>
+        <v>1.9972647561000718</v>
       </c>
       <c r="D8">
-        <v>0.51460457189742514</v>
+        <v>1.3606449837324903</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -475,10 +475,10 @@
         <v>2.8000000000027749</v>
       </c>
       <c r="C9">
-        <v>1.4656316665654758</v>
+        <v>-0.77303027252117951</v>
       </c>
       <c r="D9">
-        <v>0.82901189419789445</v>
+        <v>-1.4096500448887608</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -489,10 +489,10 @@
         <v>3.2</v>
       </c>
       <c r="C10">
-        <v>1.3841579542576392</v>
+        <v>1.9901736582271856</v>
       </c>
       <c r="D10">
-        <v>0.74753818189005783</v>
+        <v>1.3535538858596041</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -503,10 +503,10 @@
         <v>3.5999999999983339</v>
       </c>
       <c r="C11">
-        <v>1.4026614923187262</v>
+        <v>1.9580951064827401</v>
       </c>
       <c r="D11">
-        <v>0.76604171995114478</v>
+        <v>1.3214753341151586</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -517,10 +517,10 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>0.41757481564189169</v>
+        <v>3.3165662997950318</v>
       </c>
       <c r="D12">
-        <v>-0.21904495672568969</v>
+        <v>2.6799465274274503</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -531,10 +531,10 @@
         <v>3.624297277798239</v>
       </c>
       <c r="C13">
-        <v>1.2988931591803257</v>
+        <v>1.2964197487646947</v>
       </c>
       <c r="D13">
-        <v>0.66227338681274428</v>
+        <v>0.6597999763971133</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -545,10 +545,10 @@
         <v>1.6815709088891999</v>
       </c>
       <c r="C14">
-        <v>1.148301496191257</v>
+        <v>1.9169260172157259</v>
       </c>
       <c r="D14">
-        <v>0.5116817238236756</v>
+        <v>1.2803062448481444</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -559,10 +559,10 @@
         <v>1.368659813620029</v>
       </c>
       <c r="C15">
-        <v>1.4553461067716851</v>
+        <v>1.0004726701057145</v>
       </c>
       <c r="D15">
-        <v>0.81872633440410369</v>
+        <v>0.36385289773813312</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -573,10 +573,10 @@
         <v>3.002563711672618</v>
       </c>
       <c r="C16">
-        <v>1.3660506671733261</v>
+        <v>1.3458948943432056</v>
       </c>
       <c r="D16">
-        <v>0.72943089480574475</v>
+        <v>0.70927512197562426</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -587,10 +587,10 @@
         <v>2.6389858047233741</v>
       </c>
       <c r="C17">
-        <v>1.2440089981758087</v>
+        <v>1.1947187238548813</v>
       </c>
       <c r="D17">
-        <v>0.6073892258082273</v>
+        <v>0.55809895148729993</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -601,10 +601,10 @@
         <v>0.95183148019115504</v>
       </c>
       <c r="C18">
-        <v>1.1364595915046922</v>
+        <v>0.83466270638361084</v>
       </c>
       <c r="D18">
-        <v>0.70355365394281777</v>
+        <v>0.40175676882173644</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -615,10 +615,10 @@
         <v>3.330277651731222</v>
       </c>
       <c r="C19">
-        <v>1.6172355901436386</v>
+        <v>0.23866731644067551</v>
       </c>
       <c r="D19">
-        <v>0.98061581777605722</v>
+        <v>-0.39795245592690587</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -629,10 +629,10 @@
         <v>0.22083265523576989</v>
       </c>
       <c r="C20">
-        <v>0.63087396964273446</v>
+        <v>-1.412267436276927</v>
       </c>
       <c r="D20">
-        <v>0.63087396964273446</v>
+        <v>-1.412267436276927</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -643,10 +643,10 @@
         <v>2.2490323074536982</v>
       </c>
       <c r="C21">
-        <v>1.3158422600993744</v>
+        <v>0.88993055665165699</v>
       </c>
       <c r="D21">
-        <v>0.67922248773179306</v>
+        <v>0.25331078428407561</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -657,10 +657,10 @@
         <v>0.58793083622542375</v>
       </c>
       <c r="C22">
-        <v>-4.0245292624256739E-2</v>
+        <v>1.1589810257934232</v>
       </c>
       <c r="D22">
-        <v>-0.10316348796266209</v>
+        <v>1.096062830455018</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>-4.8132339481325161E-14</v>
+        <v>-2.2753066269263695E-12</v>
       </c>
       <c r="D23">
-        <v>-4.8132339481325161E-14</v>
+        <v>-2.2753066269263695E-12</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -685,10 +685,10 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <v>1.5212597337331166</v>
+        <v>0.43666527249101156</v>
       </c>
       <c r="D24">
-        <v>0.88463996136553524</v>
+        <v>-0.19995449987656982</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -699,10 +699,10 @@
         <v>1.888603634756876</v>
       </c>
       <c r="C25">
-        <v>1.3360842774550905</v>
+        <v>1.0489218636433848</v>
       </c>
       <c r="D25">
-        <v>0.69946450508750913</v>
+        <v>0.41230209127580342</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -713,10 +713,10 @@
         <v>1.5505910960541971</v>
       </c>
       <c r="C26">
-        <v>1.2558084784757686</v>
+        <v>1.0829321316631413</v>
       </c>
       <c r="D26">
-        <v>0.61989452656442079</v>
+        <v>0.44701817975179348</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -727,10 +727,10 @@
         <v>3.6155060150598799</v>
       </c>
       <c r="C27">
-        <v>1.0387786808321116</v>
+        <v>-0.86319614464648253</v>
       </c>
       <c r="D27">
-        <v>0.40215890846453017</v>
+        <v>-1.4998159170140639</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -741,10 +741,10 @@
         <v>3.2086086488121741</v>
       </c>
       <c r="C28">
-        <v>1.2468843248136594</v>
+        <v>1.7871878013926636</v>
       </c>
       <c r="D28">
-        <v>0.61026455244607802</v>
+        <v>1.1505680290250822</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -755,10 +755,10 @@
         <v>0.82000521839261109</v>
       </c>
       <c r="C29">
-        <v>2.6854656063769411E-2</v>
+        <v>-1.16144297830854</v>
       </c>
       <c r="D29">
-        <v>-2.927991519628495E-2</v>
+        <v>-1.2175775495685943</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -769,10 +769,10 @@
         <v>2.847707891124883</v>
       </c>
       <c r="C30">
-        <v>1.2512580117992089</v>
+        <v>1.9332444462033171</v>
       </c>
       <c r="D30">
-        <v>0.61463823943162754</v>
+        <v>1.2966246738357357</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -783,10 +783,10 @@
         <v>1.1581576095154531</v>
       </c>
       <c r="C31">
-        <v>0.43940962643739184</v>
+        <v>1.5175522996827027</v>
       </c>
       <c r="D31">
-        <v>0.13160992804143912</v>
+        <v>1.2097526012867499</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -797,10 +797,10 @@
         <v>0.33706509518753103</v>
       </c>
       <c r="C32">
-        <v>-1.277656345387796</v>
+        <v>4.1769540398226299</v>
       </c>
       <c r="D32">
-        <v>-1.277656345387796</v>
+        <v>4.1769540398226299</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -811,10 +811,10 @@
         <v>2.4470334123813222</v>
       </c>
       <c r="C33">
-        <v>1.348224610943237</v>
+        <v>0.84999078584119936</v>
       </c>
       <c r="D33">
-        <v>0.7116048385756556</v>
+        <v>0.21337101347361798</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -825,10 +825,10 @@
         <v>2.1237676808291259</v>
       </c>
       <c r="C34">
-        <v>1.3588350488711967</v>
+        <v>0.1047311510668693</v>
       </c>
       <c r="D34">
-        <v>0.72221527650361528</v>
+        <v>-0.53188862130071213</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -839,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>-1.4610303562279746E-12</v>
+        <v>-1.4292666798337302E-12</v>
       </c>
       <c r="D35">
-        <v>-1.4610303562279746E-12</v>
+        <v>-1.4292666798337302E-12</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -853,10 +853,10 @@
         <v>4</v>
       </c>
       <c r="C36">
-        <v>2.3590796372600171</v>
+        <v>-2.3140106718206899</v>
       </c>
       <c r="D36">
-        <v>1.7224598648924356</v>
+        <v>-2.9506304441882714</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -867,10 +867,10 @@
         <v>0.57915637452637314</v>
       </c>
       <c r="C37">
-        <v>0.26782837163930157</v>
+        <v>-2.2307205199760856</v>
       </c>
       <c r="D37">
-        <v>0.26782837163930157</v>
+        <v>-2.2307205199760856</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -881,10 +881,10 @@
         <v>3.3707992824672659</v>
       </c>
       <c r="C38">
-        <v>0.73736989790268437</v>
+        <v>2.1718295498071729</v>
       </c>
       <c r="D38">
-        <v>0.10075012553510299</v>
+        <v>1.5352097774395914</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -895,10 +895,10 @@
         <v>1.4184506288192</v>
       </c>
       <c r="C39">
-        <v>0.79868788450096695</v>
+        <v>1.0435856808043871</v>
       </c>
       <c r="D39">
-        <v>0.39047752952291531</v>
+        <v>0.63537532582633549</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -909,10 +909,10 @@
         <v>1.726659813426805</v>
       </c>
       <c r="C40">
-        <v>1.3761661942395929</v>
+        <v>1.0589221835703357</v>
       </c>
       <c r="D40">
-        <v>0.78187920589761872</v>
+        <v>0.46463519522836161</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -923,10 +923,10 @@
         <v>3.0847973408171758</v>
       </c>
       <c r="C41">
-        <v>1.1336279456021237</v>
+        <v>2.095815420660279</v>
       </c>
       <c r="D41">
-        <v>0.49700817323454227</v>
+        <v>1.4591956482926975</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -937,10 +937,10 @@
         <v>3.6648459987363569</v>
       </c>
       <c r="C42">
-        <v>1.4403867749278239</v>
+        <v>-0.596514556134214</v>
       </c>
       <c r="D42">
-        <v>0.80376700256024247</v>
+        <v>-1.2331343285017953</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -951,10 +951,10 @@
         <v>0.8672336006826572</v>
       </c>
       <c r="C43">
-        <v>2.9648274304533598E-2</v>
+        <v>0.57934248276135458</v>
       </c>
       <c r="D43">
-        <v>2.9648274304533598E-2</v>
+        <v>0.57934248276135458</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -965,10 +965,10 @@
         <v>2.353855095406916</v>
       </c>
       <c r="C44">
-        <v>1.5254871506140226</v>
+        <v>2.6464532190082575</v>
       </c>
       <c r="D44">
-        <v>0.88886737824644124</v>
+        <v>2.009833446640676</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -979,10 +979,10 @@
         <v>0.30618025484916261</v>
       </c>
       <c r="C45">
-        <v>0.44470179494375084</v>
+        <v>-2.3745375122190402</v>
       </c>
       <c r="D45">
-        <v>0.44470179494375084</v>
+        <v>-2.3745375122190402</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -993,10 +993,10 @@
         <v>1.13033142501446</v>
       </c>
       <c r="C46">
-        <v>-0.34657901982367489</v>
+        <v>-1.5310424234769484</v>
       </c>
       <c r="D46">
-        <v>-0.36441197845791151</v>
+        <v>-1.5488753821111851</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1007,10 +1007,10 @@
         <v>2.691788501636831</v>
       </c>
       <c r="C47">
-        <v>1.3097049137783912</v>
+        <v>1.0256434274509862</v>
       </c>
       <c r="D47">
-        <v>0.67308514141080977</v>
+        <v>0.38902365508340486</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1021,10 +1021,10 @@
         <v>2.1080029343497131</v>
       </c>
       <c r="C48">
-        <v>1.4758148023613367</v>
+        <v>1.7477897514667455</v>
       </c>
       <c r="D48">
-        <v>0.83944667772510451</v>
+        <v>1.1114216268305133</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1035,10 +1035,10 @@
         <v>0.55652323496504064</v>
       </c>
       <c r="C49">
-        <v>-0.24644589767075284</v>
+        <v>1.8624013681831446</v>
       </c>
       <c r="D49">
-        <v>-0.24644589767075284</v>
+        <v>1.8624013681831446</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1049,10 +1049,10 @@
         <v>3.3617780061214559</v>
       </c>
       <c r="C50">
-        <v>1.2343452784273112</v>
+        <v>2.005901511242179</v>
       </c>
       <c r="D50">
-        <v>0.59772550605972985</v>
+        <v>1.3692817388745975</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1063,10 +1063,10 @@
         <v>3.028101713052489</v>
       </c>
       <c r="C51">
-        <v>0.99251861414777409</v>
+        <v>0.89369332169655091</v>
       </c>
       <c r="D51">
-        <v>0.35589884178019271</v>
+        <v>0.25707354932896953</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1077,10 +1077,10 @@
         <v>1.4217344352488519</v>
       </c>
       <c r="C52">
-        <v>0.40023439558130797</v>
+        <v>0.96336888813085431</v>
       </c>
       <c r="D52">
-        <v>0.32245064560739944</v>
+        <v>0.88558513815694584</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>-8.9331808412911347E-13</v>
+        <v>-3.0769886401461534E-12</v>
       </c>
       <c r="D53">
-        <v>-8.9331808412911347E-13</v>
+        <v>-3.0769886401461534E-12</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1105,10 +1105,10 @@
         <v>4</v>
       </c>
       <c r="C54">
-        <v>1.3182111876765299</v>
+        <v>2.6649997045652905</v>
       </c>
       <c r="D54">
-        <v>0.68159141530894851</v>
+        <v>2.028379932197709</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1119,10 +1119,10 @@
         <v>2.4441083458562129</v>
       </c>
       <c r="C55">
-        <v>1.423427840185032</v>
+        <v>1.3502979049256756</v>
       </c>
       <c r="D55">
-        <v>0.78680806781745061</v>
+        <v>0.7136781325580942</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1133,10 +1133,10 @@
         <v>1.071401273727282</v>
       </c>
       <c r="C56">
-        <v>-7.1148581442979142E-2</v>
+        <v>-9.6861111224104096E-2</v>
       </c>
       <c r="D56">
-        <v>-7.1148581442979142E-2</v>
+        <v>-9.6861111224104096E-2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1147,10 +1147,10 @@
         <v>1.8108629913684859</v>
       </c>
       <c r="C57">
-        <v>0.18680114489841071</v>
+        <v>-1.2087723276340112</v>
       </c>
       <c r="D57">
-        <v>-0.13205433295487884</v>
+        <v>-1.5276278054873007</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1161,10 +1161,10 @@
         <v>3.6998488900261228</v>
       </c>
       <c r="C58">
-        <v>1.2673940980565337</v>
+        <v>2.7479732518652717</v>
       </c>
       <c r="D58">
-        <v>0.63077432568895231</v>
+        <v>2.1113534794976903</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1175,10 +1175,10 @@
         <v>3.1637071966578181</v>
       </c>
       <c r="C59">
-        <v>1.2286535430824721</v>
+        <v>1.0029001733875325</v>
       </c>
       <c r="D59">
-        <v>0.59203377071489072</v>
+        <v>0.36628040101995107</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1189,10 +1189,10 @@
         <v>2.8288837183786408</v>
       </c>
       <c r="C60">
-        <v>1.17169692196443</v>
+        <v>0.67972167350389312</v>
       </c>
       <c r="D60">
-        <v>0.5350771495968486</v>
+        <v>4.3101901136311738E-2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1203,10 +1203,10 @@
         <v>0.36433682441603082</v>
       </c>
       <c r="C61">
-        <v>0.10524857425526714</v>
+        <v>0.1205875189080311</v>
       </c>
       <c r="D61">
-        <v>0.10524857425526714</v>
+        <v>0.1205875189080311</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1217,10 +1217,10 @@
         <v>0.75506006863738073</v>
       </c>
       <c r="C62">
-        <v>-0.26077951280308392</v>
+        <v>-0.64652706965688733</v>
       </c>
       <c r="D62">
-        <v>-0.26077951280308392</v>
+        <v>-0.64652706965688733</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1231,10 +1231,10 @@
         <v>2.1887636794112768</v>
       </c>
       <c r="C63">
-        <v>1.1996271780927563</v>
+        <v>2.1086981538715239</v>
       </c>
       <c r="D63">
-        <v>0.68914260774276304</v>
+        <v>1.5982135835215305</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1245,10 +1245,10 @@
         <v>1.5622252921332309</v>
       </c>
       <c r="C64">
-        <v>-2.0769023247298096E-2</v>
+        <v>-2.2390858351857843</v>
       </c>
       <c r="D64">
-        <v>-2.7716924040377372E-2</v>
+        <v>-2.2460337359788634</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1259,10 +1259,10 @@
         <v>2.4933561459538991</v>
       </c>
       <c r="C65">
-        <v>1.0566907983480471</v>
+        <v>-0.51077163033826212</v>
       </c>
       <c r="D65">
-        <v>0.42446669605041276</v>
+        <v>-1.1429957326358964</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1273,10 +1273,10 @@
         <v>1.291650962576542</v>
       </c>
       <c r="C66">
-        <v>6.8239117908009725E-2</v>
+        <v>0.37404545649440607</v>
       </c>
       <c r="D66">
-        <v>6.8239117908009725E-2</v>
+        <v>0.37404545649440607</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1287,10 +1287,10 @@
         <v>3.4086484370736021</v>
       </c>
       <c r="C67">
-        <v>1.6907664151084794</v>
+        <v>0.87875056437978882</v>
       </c>
       <c r="D67">
-        <v>1.0541466427408981</v>
+        <v>0.24213079201220744</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>-1.1318410986963435E-12</v>
+        <v>5.2467325780543679E-13</v>
       </c>
       <c r="D68">
-        <v>-1.1318410986963435E-12</v>
+        <v>5.2467325780543679E-13</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1315,10 +1315,10 @@
         <v>4</v>
       </c>
       <c r="C69">
-        <v>0.30882073777133984</v>
+        <v>11.216627373361062</v>
       </c>
       <c r="D69">
-        <v>-0.32779903459624155</v>
+        <v>10.580007600993481</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1329,10 +1329,10 @@
         <v>1.025337733678088</v>
       </c>
       <c r="C70">
-        <v>0.26010929097084834</v>
+        <v>1.6182097468783641</v>
       </c>
       <c r="D70">
-        <v>0.26010929097084834</v>
+        <v>1.6182097468783641</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1343,10 +1343,10 @@
         <v>1.859870583781547</v>
       </c>
       <c r="C71">
-        <v>0.60272753457693151</v>
+        <v>2.4752245392960361</v>
       </c>
       <c r="D71">
-        <v>0.54980254660609318</v>
+        <v>2.4222995513251977</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1357,10 +1357,10 @@
         <v>0.56271766353005581</v>
       </c>
       <c r="C72">
-        <v>-0.10620666818186857</v>
+        <v>-0.17584689839223189</v>
       </c>
       <c r="D72">
-        <v>-0.10620666818186857</v>
+        <v>-0.17584689839223189</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1371,10 +1371,10 @@
         <v>3.0758177863606262</v>
       </c>
       <c r="C73">
-        <v>1.7073071099184032</v>
+        <v>3.4252819497841496</v>
       </c>
       <c r="D73">
-        <v>1.0706873375508219</v>
+        <v>2.7886621774165681</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1385,10 +1385,10 @@
         <v>3.717720886185218</v>
       </c>
       <c r="C74">
-        <v>0.77699378418513876</v>
+        <v>3.312507679252775</v>
       </c>
       <c r="D74">
-        <v>0.14037401181755738</v>
+        <v>2.6758879068851935</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1399,10 +1399,10 @@
         <v>2.664988263188842</v>
       </c>
       <c r="C75">
-        <v>1.1243566706395138</v>
+        <v>1.9709483854887337</v>
       </c>
       <c r="D75">
-        <v>0.5146366605133722</v>
+        <v>1.3612283753625922</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -1413,10 +1413,10 @@
         <v>1.4959953932593311</v>
       </c>
       <c r="C76">
-        <v>-0.45297148041889862</v>
+        <v>-0.96844269813730821</v>
       </c>
       <c r="D76">
-        <v>-0.45297148041889862</v>
+        <v>-0.96844269813730821</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1427,10 +1427,10 @@
         <v>2.265367969315101</v>
       </c>
       <c r="C77">
-        <v>0.14137770539309039</v>
+        <v>-0.86150377380517829</v>
       </c>
       <c r="D77">
-        <v>-0.10970419842043819</v>
+        <v>-1.1125856776187069</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1441,10 +1441,10 @@
         <v>0.29350948358105938</v>
       </c>
       <c r="C78">
-        <v>-0.14839480212016551</v>
+        <v>1.3471850873225295</v>
       </c>
       <c r="D78">
-        <v>-0.14839480212016551</v>
+        <v>1.3471850873225295</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1455,10 +1455,10 @@
         <v>0.83748276267633281</v>
       </c>
       <c r="C79">
-        <v>0.31896719225867481</v>
+        <v>-1.6196704628223082</v>
       </c>
       <c r="D79">
-        <v>0.31896719225867481</v>
+        <v>-1.6196704628223082</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1469,10 +1469,10 @@
         <v>1.149698159263238</v>
       </c>
       <c r="C80">
-        <v>-0.1117921914259903</v>
+        <v>-0.83517366546493554</v>
       </c>
       <c r="D80">
-        <v>-0.1117921914259903</v>
+        <v>-0.83517366546493554</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -1483,10 +1483,10 @@
         <v>3.4330178570903729</v>
       </c>
       <c r="C81">
-        <v>1.2827147966362986</v>
+        <v>-0.19633360013568427</v>
       </c>
       <c r="D81">
-        <v>0.64609502426871723</v>
+        <v>-0.83295337250326562</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>-1.502354509659972E-12</v>
+        <v>4.4594970267831264E-12</v>
       </c>
       <c r="D82">
-        <v>-1.502354509659972E-12</v>
+        <v>4.4594970267831264E-12</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1511,10 +1511,10 @@
         <v>2.0000000000015028</v>
       </c>
       <c r="C83">
-        <v>-0.65364320980278412</v>
+        <v>1.4472548133946381</v>
       </c>
       <c r="D83">
-        <v>-0.65364320980278412</v>
+        <v>1.4472548133946381</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -1525,10 +1525,10 @@
         <v>4</v>
       </c>
       <c r="C84">
-        <v>1.2306464283453913</v>
+        <v>4.4987142314510047</v>
       </c>
       <c r="D84">
-        <v>0.5940266559778099</v>
+        <v>3.8620944590834232</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -1539,10 +1539,10 @@
         <v>0.55539266423123013</v>
       </c>
       <c r="C85">
-        <v>0.33494798102444301</v>
+        <v>0.3207336468401511</v>
       </c>
       <c r="D85">
-        <v>0.33494798102444301</v>
+        <v>0.3207336468401511</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -1553,10 +1553,10 @@
         <v>2.8396275178586272</v>
       </c>
       <c r="C86">
-        <v>1.3651864893262655</v>
+        <v>1.1661640239501327</v>
       </c>
       <c r="D86">
-        <v>0.82517294997157009</v>
+        <v>0.62615048459543732</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -1567,10 +1567,10 @@
         <v>3.1478563391985421</v>
       </c>
       <c r="C87">
-        <v>1.4025557229441281</v>
+        <v>-1.6341075753169374</v>
       </c>
       <c r="D87">
-        <v>0.76593595057654673</v>
+        <v>-2.2707273476845189</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -1581,10 +1581,10 @@
         <v>1.7329153196058169</v>
       </c>
       <c r="C88">
-        <v>-0.17968598596203791</v>
+        <v>0.92053349932295814</v>
       </c>
       <c r="D88">
-        <v>-0.17968598596203791</v>
+        <v>0.92053349932295814</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -1595,10 +1595,10 @@
         <v>3.6981652690618398</v>
       </c>
       <c r="C89">
-        <v>1.1874968704498625</v>
+        <v>-2.3218982030787654</v>
       </c>
       <c r="D89">
-        <v>0.55087709808228114</v>
+        <v>-2.9585179754463469</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -1609,10 +1609,10 @@
         <v>2.486111774033108</v>
       </c>
       <c r="C90">
-        <v>0.56871264189582071</v>
+        <v>1.2374055965028805</v>
       </c>
       <c r="D90">
-        <v>0.41342360672190492</v>
+        <v>1.0821165613289647</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -1623,10 +1623,10 @@
         <v>1.333828532386484</v>
       </c>
       <c r="C91">
-        <v>0.46609818362211103</v>
+        <v>0.81913039619538597</v>
       </c>
       <c r="D91">
-        <v>0.46609818362211103</v>
+        <v>0.81913039619538597</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -1637,10 +1637,10 @@
         <v>0.91987019095241584</v>
       </c>
       <c r="C92">
-        <v>-0.19436857014425848</v>
+        <v>9.2678804400450863E-3</v>
       </c>
       <c r="D92">
-        <v>-0.19436857014425848</v>
+        <v>9.2678804400450863E-3</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -1651,10 +1651,10 @@
         <v>0.27860974930903942</v>
       </c>
       <c r="C93">
-        <v>-4.3544943992801746E-2</v>
+        <v>-0.69341788261195036</v>
       </c>
       <c r="D93">
-        <v>-4.3544943992801746E-2</v>
+        <v>-0.69341788261195036</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -1665,10 +1665,10 @@
         <v>3.4221164306029328</v>
       </c>
       <c r="C94">
-        <v>0.99671942918435452</v>
+        <v>0.91697247951607708</v>
       </c>
       <c r="D94">
-        <v>0.36009965681677314</v>
+        <v>0.28035270714849569</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -1679,10 +1679,10 @@
         <v>2.1124012032616708</v>
       </c>
       <c r="C95">
-        <v>-0.34131833674781498</v>
+        <v>-3.5681811184500256E-2</v>
       </c>
       <c r="D95">
-        <v>-0.34131833674781498</v>
+        <v>-3.5681811184500256E-2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -1693,10 +1693,10 @@
         <v>2.9703063073565499</v>
       </c>
       <c r="C96">
-        <v>0.27682147114476935</v>
+        <v>2.6379527532079243</v>
       </c>
       <c r="D96">
-        <v>-0.16630796870714426</v>
+        <v>2.1948233133560109</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -1707,10 +1707,10 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>-1.1143953244844719E-12</v>
+        <v>6.9403509745127136E-12</v>
       </c>
       <c r="D97">
-        <v>-1.1143953244844719E-12</v>
+        <v>6.9403509745127136E-12</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -1721,10 +1721,10 @@
         <v>4</v>
       </c>
       <c r="C98">
-        <v>1.9408043647490121</v>
+        <v>-4.2821785370081189</v>
       </c>
       <c r="D98">
-        <v>1.3041845923814308</v>
+        <v>-4.9187983093757</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -1735,10 +1735,10 @@
         <v>1.513901270630337</v>
       </c>
       <c r="C99">
-        <v>0.41985862906415111</v>
+        <v>-1.3820448631137001</v>
       </c>
       <c r="D99">
-        <v>0.41985862906415111</v>
+        <v>-1.3820448631137001</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -1749,10 +1749,10 @@
         <v>2.692684637014092</v>
       </c>
       <c r="C100">
-        <v>0.27714417513308343</v>
+        <v>-1.0323209669739315</v>
       </c>
       <c r="D100">
-        <v>0.17085195395174058</v>
+        <v>-1.1386131881552743</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -1763,10 +1763,10 @@
         <v>0.59001833196095121</v>
       </c>
       <c r="C101">
-        <v>-0.17029057731638905</v>
+        <v>-0.70109763112150469</v>
       </c>
       <c r="D101">
-        <v>-0.17029057731638905</v>
+        <v>-0.70109763112150469</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -1777,10 +1777,10 @@
         <v>3.2329869114865701</v>
       </c>
       <c r="C102">
-        <v>1.0976201709477902</v>
+        <v>1.5839029371079221</v>
       </c>
       <c r="D102">
-        <v>0.52751297857173229</v>
+        <v>1.0137957447318642</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -1791,10 +1791,10 @@
         <v>1.819018600351906</v>
       </c>
       <c r="C103">
-        <v>-0.32131285722763048</v>
+        <v>-1.2973876570161336</v>
       </c>
       <c r="D103">
-        <v>-0.32131285722763048</v>
+        <v>-1.2973876570161336</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -1805,10 +1805,10 @@
         <v>2.3672916357420259</v>
       </c>
       <c r="C104">
-        <v>0.34114178636100589</v>
+        <v>-1.5233452576049151</v>
       </c>
       <c r="D104">
-        <v>0.34114178636100589</v>
+        <v>-1.5233452576049151</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -1819,10 +1819,10 @@
         <v>3.6161364404925171</v>
       </c>
       <c r="C105">
-        <v>1.35620531006836</v>
+        <v>0.80027671400509615</v>
       </c>
       <c r="D105">
-        <v>0.7195855377007786</v>
+        <v>0.16365694163751476</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -1833,10 +1833,10 @@
         <v>1.1790428881352319</v>
       </c>
       <c r="C106">
-        <v>-0.23930746490281837</v>
+        <v>0.49412304824215425</v>
       </c>
       <c r="D106">
-        <v>-0.23930746490281837</v>
+        <v>0.49412304824215425</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -1847,10 +1847,10 @@
         <v>2.0621403131922542</v>
       </c>
       <c r="C107">
-        <v>-0.22909004662752935</v>
+        <v>1.5654586210440158</v>
       </c>
       <c r="D107">
-        <v>-0.22909004662752935</v>
+        <v>1.5654586210440158</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -1861,10 +1861,10 @@
         <v>0.840394867313907</v>
       </c>
       <c r="C108">
-        <v>0.34511547622865923</v>
+        <v>2.4046426767707803</v>
       </c>
       <c r="D108">
-        <v>0.34511547622865923</v>
+        <v>2.4046426767707803</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -1875,10 +1875,10 @@
         <v>0.30079071555189468</v>
       </c>
       <c r="C109">
-        <v>6.7269376157400246E-3</v>
+        <v>0.51815924078800601</v>
       </c>
       <c r="D109">
-        <v>6.7269376157400246E-3</v>
+        <v>0.51815924078800601</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -1889,10 +1889,10 @@
         <v>1.563944171189495</v>
       </c>
       <c r="C110">
-        <v>-9.4750843776643071E-2</v>
+        <v>-1.0749368455715389</v>
       </c>
       <c r="D110">
-        <v>-9.4750843776643071E-2</v>
+        <v>-1.0749368455715389</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -1903,10 +1903,10 @@
         <v>2.9541253008267718</v>
       </c>
       <c r="C111">
-        <v>0.53435362431016464</v>
+        <v>-1.7053524479642337</v>
       </c>
       <c r="D111">
-        <v>0.44157607114831393</v>
+        <v>-1.7981300011260843</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -1917,10 +1917,10 @@
         <v>2.2583017898999929</v>
       </c>
       <c r="C112">
-        <v>0.3590431348558949</v>
+        <v>2.1462180943202505</v>
       </c>
       <c r="D112">
-        <v>0.3590431348558949</v>
+        <v>2.1462180943202505</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -1931,10 +1931,10 @@
         <v>0.97736048071705661</v>
       </c>
       <c r="C113">
-        <v>-0.14994986360712548</v>
+        <v>0.40516263991741469</v>
       </c>
       <c r="D113">
-        <v>-0.14994986360712548</v>
+        <v>0.40516263991741469</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -1945,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>-1.8153706754759899E-12</v>
+        <v>6.1318873270998001E-12</v>
       </c>
       <c r="D114">
-        <v>-1.8153706754759899E-12</v>
+        <v>6.1318873270998001E-12</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -1959,10 +1959,10 @@
         <v>4</v>
       </c>
       <c r="C115">
-        <v>1.4015858641907477</v>
+        <v>0.81159369441845852</v>
       </c>
       <c r="D115">
-        <v>0.76496609182316633</v>
+        <v>0.17497392205087714</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -1973,10 +1973,10 @@
         <v>1.92880932423186</v>
       </c>
       <c r="C116">
-        <v>0.47497124564343401</v>
+        <v>0.85970627114272946</v>
       </c>
       <c r="D116">
-        <v>0.47497124564343401</v>
+        <v>0.85970627114272946</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -1987,10 +1987,10 @@
         <v>2.5625551517993199</v>
       </c>
       <c r="C117">
-        <v>-0.66489790555310002</v>
+        <v>-0.28908749904566688</v>
       </c>
       <c r="D117">
-        <v>-0.66489790555310002</v>
+        <v>-0.28908749904566688</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -2001,10 +2001,10 @@
         <v>3.3354524954581688</v>
       </c>
       <c r="C118">
-        <v>0.35273139136244086</v>
+        <v>4.3955568492271908</v>
       </c>
       <c r="D118">
-        <v>1.1875749562109739E-2</v>
+        <v>4.0547012074268594</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2015,10 +2015,10 @@
         <v>0.6450518044072201</v>
       </c>
       <c r="C119">
-        <v>3.840630444362704E-2</v>
+        <v>-0.90223653789139502</v>
       </c>
       <c r="D119">
-        <v>3.840630444362704E-2</v>
+        <v>-0.90223653789139502</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -2029,10 +2029,10 @@
         <v>3.7255642789809271</v>
       </c>
       <c r="C120">
-        <v>1.2418639733631127</v>
+        <v>0.26578854088977893</v>
       </c>
       <c r="D120">
-        <v>0.6630319726284013</v>
+        <v>-0.31304345984493248</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -2043,10 +2043,10 @@
         <v>1.291469172993128</v>
       </c>
       <c r="C121">
-        <v>0.20937380214727472</v>
+        <v>0.74330281466620951</v>
       </c>
       <c r="D121">
-        <v>0.20937380214727472</v>
+        <v>0.74330281466620951</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -2057,10 +2057,10 @@
         <v>1.651423768358224</v>
       </c>
       <c r="C122">
-        <v>-0.43530477574065141</v>
+        <v>0.61346336821327019</v>
       </c>
       <c r="D122">
-        <v>-0.43530477574065141</v>
+        <v>0.61346336821327019</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -2071,10 +2071,10 @@
         <v>2.8034205483322321</v>
       </c>
       <c r="C123">
-        <v>-0.19684934400454801</v>
+        <v>1.2570089981352581</v>
       </c>
       <c r="D123">
-        <v>-0.19684934400454801</v>
+        <v>1.2570089981352581</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -2085,10 +2085,10 @@
         <v>0.33783127693462078</v>
       </c>
       <c r="C124">
-        <v>9.286794384175686E-4</v>
+        <v>-0.82576892619289133</v>
       </c>
       <c r="D124">
-        <v>9.286794384175686E-4</v>
+        <v>-0.82576892619289133</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -2099,10 +2099,10 @@
         <v>3.08685267524372</v>
       </c>
       <c r="C125">
-        <v>-7.8839842201159749E-2</v>
+        <v>-0.62567881807492698</v>
       </c>
       <c r="D125">
-        <v>-7.9430495729232525E-2</v>
+        <v>-0.62626947160299973</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -2113,10 +2113,10 @@
         <v>2.2513179966780319</v>
       </c>
       <c r="C126">
-        <v>-0.3709104132441412</v>
+        <v>-3.0202187458510341</v>
       </c>
       <c r="D126">
-        <v>-0.3709104132441412</v>
+        <v>-3.0202187458510341</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -2127,10 +2127,10 @@
         <v>0.93084367073579644</v>
       </c>
       <c r="C127">
-        <v>-5.0727602681459739E-2</v>
+        <v>-2.6562733364460946</v>
       </c>
       <c r="D127">
-        <v>-5.0727602681459739E-2</v>
+        <v>-2.6562733364460946</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -2141,10 +2141,10 @@
         <v>1.895518623133178</v>
       </c>
       <c r="C128">
-        <v>0.35541160952281764</v>
+        <v>1.0234137242908985</v>
       </c>
       <c r="D128">
-        <v>0.35541160952281764</v>
+        <v>1.0234137242908985</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -2155,10 +2155,10 @@
         <v>2.5812511508409051</v>
       </c>
       <c r="C129">
-        <v>0.46974707648528696</v>
+        <v>1.4896705776464707</v>
       </c>
       <c r="D129">
-        <v>0.46974707648528696</v>
+        <v>1.4896705776464707</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -2169,10 +2169,10 @@
         <v>0.64196077851875921</v>
       </c>
       <c r="C130">
-        <v>3.9897335247334603E-2</v>
+        <v>3.8622058149510932</v>
       </c>
       <c r="D130">
-        <v>3.9897335247334603E-2</v>
+        <v>3.8622058149510932</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -2183,10 +2183,10 @@
         <v>3.4014104215835261</v>
       </c>
       <c r="C131">
-        <v>0.40439550199756719</v>
+        <v>-2.0048145848505428</v>
       </c>
       <c r="D131">
-        <v>0.33018746419250794</v>
+        <v>-2.0790226226556019</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -2197,10 +2197,10 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>-1.957550728958001E-12</v>
+        <v>3.5780610087379838E-12</v>
       </c>
       <c r="D132">
-        <v>-1.957550728958001E-12</v>
+        <v>3.5780610087379838E-12</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -2211,10 +2211,10 @@
         <v>4</v>
       </c>
       <c r="C133">
-        <v>0.7497758686661955</v>
+        <v>-0.51223643509815375</v>
       </c>
       <c r="D133">
-        <v>0.17394787508216303</v>
+        <v>-1.0880644286821863</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -2225,10 +2225,10 @@
         <v>1.553881329879057</v>
       </c>
       <c r="C134">
-        <v>0.21138203622516163</v>
+        <v>0.92919818472694105</v>
       </c>
       <c r="D134">
-        <v>0.21138203622516163</v>
+        <v>0.92919818472694105</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -2239,10 +2239,10 @@
         <v>3.669632305163633</v>
       </c>
       <c r="C135">
-        <v>0.13057106145015662</v>
+        <v>3.2385358901314123</v>
       </c>
       <c r="D135">
-        <v>-5.3531357138678959E-2</v>
+        <v>3.0544334715425769</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -2253,10 +2253,10 @@
         <v>1.1851279111340109</v>
       </c>
       <c r="C136">
-        <v>-0.41508243754805246</v>
+        <v>-1.7919405085012852</v>
       </c>
       <c r="D136">
-        <v>-0.41508243754805246</v>
+        <v>-1.7919405085012852</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -2267,10 +2267,10 @@
         <v>2.832318462950441</v>
       </c>
       <c r="C137">
-        <v>-0.32592415236458738</v>
+        <v>-0.69098396379799731</v>
       </c>
       <c r="D137">
-        <v>-0.32592415236458738</v>
+        <v>-0.69098396379799731</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -2281,10 +2281,10 @@
         <v>3.1758391810471909</v>
       </c>
       <c r="C138">
-        <v>-0.13103406765754147</v>
+        <v>-2.4747569018217508</v>
       </c>
       <c r="D138">
-        <v>-0.13103406765754147</v>
+        <v>-2.4747569018217508</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -2295,10 +2295,10 @@
         <v>0.81955650994540052</v>
       </c>
       <c r="C139">
-        <v>0.2508653433739042</v>
+        <v>3.4844311284450256</v>
       </c>
       <c r="D139">
-        <v>0.2508653433739042</v>
+        <v>3.4844311284450256</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -2309,10 +2309,10 @@
         <v>0.38804121066620911</v>
       </c>
       <c r="C140">
-        <v>-1.9671101022780555E-2</v>
+        <v>-1.5683928769642592</v>
       </c>
       <c r="D140">
-        <v>-1.9671101022780555E-2</v>
+        <v>-1.5683928769642592</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -2323,10 +2323,10 @@
         <v>1.76127749148116</v>
       </c>
       <c r="C141">
-        <v>-0.39661471526642572</v>
+        <v>5.4706007713315928E-2</v>
       </c>
       <c r="D141">
-        <v>-0.39661471526642572</v>
+        <v>5.4706007713315928E-2</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -2337,10 +2337,10 @@
         <v>2.075239182785813</v>
       </c>
       <c r="C142">
-        <v>0.38205975910274376</v>
+        <v>-0.3618245359598789</v>
       </c>
       <c r="D142">
-        <v>0.38205975910274376</v>
+        <v>-0.3618245359598789</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -2351,10 +2351,10 @@
         <v>2.4529179354621919</v>
       </c>
       <c r="C143">
-        <v>-5.6962403644780099E-2</v>
+        <v>0.39122176745847237</v>
       </c>
       <c r="D143">
-        <v>-5.6962403644780099E-2</v>
+        <v>0.39122176745847237</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -2365,10 +2365,10 @@
         <v>4</v>
       </c>
       <c r="C144">
-        <v>8.6723123496422777E-2</v>
+        <v>-3.0620919922969363</v>
       </c>
       <c r="D144">
-        <v>-0.13322359838060585</v>
+        <v>-3.2820387141739649</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -2379,10 +2379,10 @@
         <v>0</v>
       </c>
       <c r="C145">
-        <v>-5.9814024351378789E-12</v>
+        <v>7.0427721011427556E-12</v>
       </c>
       <c r="D145">
-        <v>-5.9814024351378789E-12</v>
+        <v>7.0427721011427556E-12</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -2393,10 +2393,10 @@
         <v>3.4151215936075161</v>
       </c>
       <c r="C146">
-        <v>3.1474227845916761E-2</v>
+        <v>1.9506705692820967</v>
       </c>
       <c r="D146">
-        <v>3.1474227845916761E-2</v>
+        <v>1.9506705692820967</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -2407,10 +2407,10 @@
         <v>1.46486890902801</v>
       </c>
       <c r="C147">
-        <v>2.5040716500046942E-2</v>
+        <v>0.29525996026150647</v>
       </c>
       <c r="D147">
-        <v>2.5040716500046942E-2</v>
+        <v>0.29525996026150647</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -2421,10 +2421,10 @@
         <v>3.7807923164616821</v>
       </c>
       <c r="C148">
-        <v>-1.8279174677994246E-2</v>
+        <v>-2.134089929158276</v>
       </c>
       <c r="D148">
-        <v>-5.8038430825474836E-2</v>
+        <v>-2.1738491853057567</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -2435,10 +2435,10 @@
         <v>3.0485741978789722</v>
       </c>
       <c r="C149">
-        <v>0.10693681250849958</v>
+        <v>1.2736101614230995</v>
       </c>
       <c r="D149">
-        <v>0.10693681250849958</v>
+        <v>1.2736101614230995</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -2449,10 +2449,10 @@
         <v>0.69176106009803429</v>
       </c>
       <c r="C150">
-        <v>-0.96008765781082184</v>
+        <v>-5.088924495221006</v>
       </c>
       <c r="D150">
-        <v>-0.96008765781082184</v>
+        <v>-5.088924495221006</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -2463,10 +2463,10 @@
         <v>1.8566361810653631</v>
       </c>
       <c r="C151">
-        <v>0.11085310190433492</v>
+        <v>-1.9414436827302615</v>
       </c>
       <c r="D151">
-        <v>0.11085310190433492</v>
+        <v>-1.9414436827302615</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -2477,10 +2477,10 @@
         <v>2.6287070165651261</v>
       </c>
       <c r="C152">
-        <v>0.2329687204069604</v>
+        <v>-0.59244350493328257</v>
       </c>
       <c r="D152">
-        <v>0.2329687204069604</v>
+        <v>-0.59244350493328257</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -2491,10 +2491,10 @@
         <v>2.2384315031065332</v>
       </c>
       <c r="C153">
-        <v>-0.26692989141242379</v>
+        <v>1.8907239322948894</v>
       </c>
       <c r="D153">
-        <v>-0.26692989141242379</v>
+        <v>1.8907239322948894</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -2505,10 +2505,10 @@
         <v>1.0796044285195929</v>
       </c>
       <c r="C154">
-        <v>0.39139215787104653</v>
+        <v>1.6802887573685878</v>
       </c>
       <c r="D154">
-        <v>0.39139215787104653</v>
+        <v>1.6802887573685878</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -2519,10 +2519,10 @@
         <v>0.37996704512695462</v>
       </c>
       <c r="C155">
-        <v>0.46551422378964874</v>
+        <v>2.0047916244832247</v>
       </c>
       <c r="D155">
-        <v>0.46551422378964874</v>
+        <v>2.0047916244832247</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -2533,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="C156">
-        <v>9.9126216626056842E-14</v>
+        <v>1.3351501585723798E-12</v>
       </c>
       <c r="D156">
-        <v>9.9126216626056842E-14</v>
+        <v>1.3351501585723798E-12</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -2547,10 +2547,10 @@
         <v>0.39999999999925662</v>
       </c>
       <c r="C157">
-        <v>5.5498596131145093E-12</v>
+        <v>-1.5574162925162266E-11</v>
       </c>
       <c r="D157">
-        <v>5.5498596131145093E-12</v>
+        <v>-1.5574162925162266E-11</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -2561,10 +2561,10 @@
         <v>0.79999999999822768</v>
       </c>
       <c r="C158">
-        <v>2.7126238777843808E-12</v>
+        <v>-7.6666227149926404E-12</v>
       </c>
       <c r="D158">
-        <v>2.7126238777843808E-12</v>
+        <v>-7.6666227149926404E-12</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -2575,10 +2575,10 @@
         <v>1.1999999999970601</v>
       </c>
       <c r="C159">
-        <v>1.1800030586417725E-12</v>
+        <v>-1.4376058884648036E-11</v>
       </c>
       <c r="D159">
-        <v>1.1800030586417725E-12</v>
+        <v>-1.4376058884648036E-11</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -2589,10 +2589,10 @@
         <v>1.599999999995892</v>
       </c>
       <c r="C160">
-        <v>1.4159189034456647E-12</v>
+        <v>-1.0757341700345205E-11</v>
       </c>
       <c r="D160">
-        <v>1.4159189034456647E-12</v>
+        <v>-1.0757341700345205E-11</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -2603,10 +2603,10 @@
         <v>1.999999999994768</v>
       </c>
       <c r="C161">
-        <v>1.2984017462537471E-12</v>
+        <v>-7.9201570780025973E-12</v>
       </c>
       <c r="D161">
-        <v>1.2984017462537471E-12</v>
+        <v>-7.9201570780025973E-12</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -2617,10 +2617,10 @@
         <v>2.3999999999957802</v>
       </c>
       <c r="C162">
-        <v>1.2959785405552442E-12</v>
+        <v>-2.5551289966411556E-12</v>
       </c>
       <c r="D162">
-        <v>1.2959785405552442E-12</v>
+        <v>-2.5551289966411556E-12</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -2631,10 +2631,10 @@
         <v>2.7999999999968348</v>
       </c>
       <c r="C163">
-        <v>9.7285075355594148E-13</v>
+        <v>4.9318196051407082E-12</v>
       </c>
       <c r="D163">
-        <v>9.7285075355594148E-13</v>
+        <v>4.9318196051407082E-12</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -2645,10 +2645,10 @@
         <v>3.1999999999978899</v>
       </c>
       <c r="C164">
-        <v>1.0816634080217334E-12</v>
+        <v>4.7729258293270754E-12</v>
       </c>
       <c r="D164">
-        <v>1.0816634080217334E-12</v>
+        <v>4.7729258293270754E-12</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -2659,10 +2659,10 @@
         <v>3.5999999999989449</v>
       </c>
       <c r="C165">
-        <v>4.0948233499518343E-13</v>
+        <v>1.7350014464703226E-12</v>
       </c>
       <c r="D165">
-        <v>4.0948233499518343E-13</v>
+        <v>1.7350014464703226E-12</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -2673,10 +2673,10 @@
         <v>4</v>
       </c>
       <c r="C166">
-        <v>6.8910495139256946E-14</v>
+        <v>2.7139302509471966E-12</v>
       </c>
       <c r="D166">
-        <v>6.8910495139256946E-14</v>
+        <v>2.7139302509471966E-12</v>
       </c>
     </row>
   </sheetData>
@@ -2692,10 +2692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EC5797-EC32-4029-A993-9EB3C97520A0}">
-  <dimension ref="A1:D165"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="A1:D165"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4000000000016648</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.12826692282575955</v>
+        <v>0.88009151937802288</v>
       </c>
       <c r="D2">
         <v>-0.34821364470278693</v>
@@ -2733,13 +2733,13 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0.80000000000333005</v>
+        <v>0.4000000000016648</v>
       </c>
       <c r="C3">
-        <v>-2.9158923786220092</v>
+        <v>1.1007037614871904</v>
       </c>
       <c r="D3">
-        <v>-3.4917203722079995</v>
+        <v>0.3429972060959996</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2747,13 +2747,13 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>1.2000000000049951</v>
+        <v>0.80000000000333005</v>
       </c>
       <c r="C4">
-        <v>-1.904234012909525</v>
+        <v>1.266901244401764</v>
       </c>
       <c r="D4">
-        <v>-2.5408537852771063</v>
+        <v>-2.3704893517398333</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>1.6000000000066601</v>
+        <v>1.2000000000049951</v>
       </c>
       <c r="C5">
-        <v>0.33099510789972458</v>
+        <v>2.1095436369413858</v>
       </c>
       <c r="D5">
-        <v>-0.3056246644678568</v>
+        <v>-1.1673320887213483</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>2.0000000000082379</v>
+        <v>1.6000000000066601</v>
       </c>
       <c r="C6">
-        <v>-0.80850729809062116</v>
+        <v>2.9116085437862287</v>
       </c>
       <c r="D6">
-        <v>-1.4451270704582027</v>
+        <v>-1.110264688303688</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2789,13 +2789,13 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>2.4000000000055501</v>
+        <v>2.0000000000082379</v>
       </c>
       <c r="C7">
-        <v>-2.4490450687390666E-2</v>
+        <v>2.5423129463190257</v>
       </c>
       <c r="D7">
-        <v>-0.66111022305497202</v>
+        <v>-1.5182876312728748</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>2.8000000000027749</v>
+        <v>2.4000000000055501</v>
       </c>
       <c r="C8">
-        <v>2.8758883446717887</v>
+        <v>2.2355856132040723</v>
       </c>
       <c r="D8">
-        <v>2.2392685723042072</v>
+        <v>-1.058351330503114</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2817,13 +2817,13 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>3.2</v>
+        <v>2.8000000000027749</v>
       </c>
       <c r="C9">
-        <v>-3.9520352134923102E-2</v>
+        <v>3.4413155235694268</v>
       </c>
       <c r="D9">
-        <v>-0.67614012450250449</v>
+        <v>1.3774597910869764</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2831,13 +2831,13 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>3.5999999999983339</v>
+        <v>3.2</v>
       </c>
       <c r="C10">
-        <v>-1.1001392706379081</v>
+        <v>2.1315772502245895</v>
       </c>
       <c r="D10">
-        <v>-1.7367590430054896</v>
+        <v>-5.1130916711357051</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2845,2029 +2845,2026 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>3.5999999999983339</v>
       </c>
       <c r="C11">
-        <v>-1.5900146036587055</v>
+        <v>3.0885777412459703</v>
       </c>
       <c r="D11">
-        <v>-2.2266343760262868</v>
+        <v>0.63565041614973505</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>0.22116454403540531</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>3.624297277798239</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0.50724518536517027</v>
+        <v>2.7258531023895247</v>
       </c>
       <c r="D12">
-        <v>-0.12937458700241111</v>
+        <v>-0.3056246644678568</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>0.27005618541875598</v>
+        <v>0.22116454403540531</v>
       </c>
       <c r="B13">
-        <v>1.6815709088891999</v>
+        <v>3.624297277798239</v>
       </c>
       <c r="C13">
-        <v>0.46410715071664382</v>
+        <v>2.744129931242723</v>
       </c>
       <c r="D13">
-        <v>-0.17251262165093756</v>
+        <v>-2.8830655105354306</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>0.29720625306965542</v>
+        <v>0.27005618541875598</v>
       </c>
       <c r="B14">
-        <v>1.368659813620029</v>
+        <v>1.6815709088891999</v>
       </c>
       <c r="C14">
-        <v>-1.3859328922338781</v>
+        <v>2.8154036866800558</v>
       </c>
       <c r="D14">
-        <v>-2.0225526646014593</v>
+        <v>1.0246808961958518</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>0.29918510495020662</v>
+        <v>0.29720625306965542</v>
       </c>
       <c r="B15">
-        <v>3.002563711672618</v>
+        <v>1.368659813620029</v>
       </c>
       <c r="C15">
-        <v>1.1069967050266767</v>
+        <v>2.3931201786045477</v>
       </c>
       <c r="D15">
-        <v>0.4703769326590953</v>
+        <v>2.0028266708994713</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0.31704317105459928</v>
+        <v>0.29918510495020662</v>
       </c>
       <c r="B16">
-        <v>2.6389858047233741</v>
+        <v>3.002563711672618</v>
       </c>
       <c r="C16">
-        <v>0.91714786548357541</v>
+        <v>2.4979784398947964</v>
       </c>
       <c r="D16">
-        <v>0.28052809311599403</v>
+        <v>0.60249379013268078</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>0.33460335373215178</v>
+        <v>0.31704317105459928</v>
       </c>
       <c r="B17">
-        <v>0.95183148019115504</v>
+        <v>2.6389858047233741</v>
       </c>
       <c r="C17">
-        <v>-1.0027198016120404</v>
+        <v>2.7143216497611027</v>
       </c>
       <c r="D17">
-        <v>-1.4356257391739149</v>
+        <v>-4.4677218618861509</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>0.33911117480645342</v>
+        <v>0.33460335373215178</v>
       </c>
       <c r="B18">
-        <v>3.330277651731222</v>
+        <v>0.95183148019115504</v>
       </c>
       <c r="C18">
-        <v>-0.95463301780841192</v>
+        <v>1.4971773303439846</v>
       </c>
       <c r="D18">
-        <v>-1.5912527901759934</v>
+        <v>-1.9159092209029813</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>0.37622101698646382</v>
+        <v>0.33911117480645342</v>
       </c>
       <c r="B19">
-        <v>0.22083265523576989</v>
+        <v>3.330277651731222</v>
       </c>
       <c r="C19">
-        <v>-2.0369877674751908</v>
+        <v>3.4435637380863131</v>
       </c>
       <c r="D19">
-        <v>-2.0369877674751908</v>
+        <v>-2.6509542468390608</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>0.38429055383092747</v>
+        <v>0.37622101698646382</v>
       </c>
       <c r="B20">
-        <v>2.2490323074536982</v>
+        <v>0.22083265523576989</v>
       </c>
       <c r="C20">
-        <v>0.7782477865268842</v>
+        <v>0.27024330105644745</v>
       </c>
       <c r="D20">
-        <v>0.14162801415930282</v>
+        <v>0.48176784377957038</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>0.38434094646953032</v>
+        <v>0.38429055383092747</v>
       </c>
       <c r="B21">
-        <v>0.58793083622542375</v>
+        <v>2.2490323074536982</v>
       </c>
       <c r="C21">
-        <v>-2.1786598387396707</v>
+        <v>2.9808201522801925</v>
       </c>
       <c r="D21">
-        <v>-2.241578034078076</v>
+        <v>5.844742134981093E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>0.39999999999925662</v>
+        <v>0.38434094646953032</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.58793083622542375</v>
       </c>
       <c r="C22">
-        <v>-1.1909584575450545</v>
+        <v>0.75502956398394883</v>
       </c>
       <c r="D22">
-        <v>-1.1909584575450545</v>
+        <v>-0.47139722868960632</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>0.4000000000016648</v>
+        <v>0.39999999999925662</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>-3.0903002061168063</v>
+        <v>0.33073978875259574</v>
       </c>
       <c r="D23">
-        <v>-3.7269199784843878</v>
+        <v>-1.4451270704582027</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>0.48128203516565149</v>
+        <v>0.4000000000016648</v>
       </c>
       <c r="B24">
-        <v>1.888603634756876</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>-0.67969824710172788</v>
+        <v>3.2721939725116167</v>
       </c>
       <c r="D24">
-        <v>-1.3163180194693092</v>
+        <v>-1.1825312310953624</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>0.57179263885847331</v>
+        <v>0.48128203516565149</v>
       </c>
       <c r="B25">
-        <v>1.5505910960541971</v>
+        <v>1.888603634756876</v>
       </c>
       <c r="C25">
-        <v>-2.1039287684140446</v>
+        <v>2.2747557186098351</v>
       </c>
       <c r="D25">
-        <v>-2.7398427203253926</v>
+        <v>2.0568390119476527</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>0.58787608940431391</v>
+        <v>0.57179263885847331</v>
       </c>
       <c r="B26">
-        <v>3.6155060150598799</v>
+        <v>1.5505910960541971</v>
       </c>
       <c r="C26">
-        <v>-1.0979729325391001</v>
+        <v>1.7396520683289645</v>
       </c>
       <c r="D26">
-        <v>-1.7345927049066816</v>
+        <v>-2.0917023649240942</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>0.59947997763747474</v>
+        <v>0.58787608940431391</v>
       </c>
       <c r="B27">
-        <v>3.2086086488121741</v>
+        <v>3.6155060150598799</v>
       </c>
       <c r="C27">
-        <v>1.1146133454229461</v>
+        <v>2.4730567165638071</v>
       </c>
       <c r="D27">
-        <v>0.47799357305536472</v>
+        <v>-0.31332419141936968</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>0.62807000765066257</v>
+        <v>0.59947997763747474</v>
       </c>
       <c r="B28">
-        <v>0.82000521839261109</v>
+        <v>3.2086086488121741</v>
       </c>
       <c r="C28">
-        <v>-4.2651686096977382E-3</v>
+        <v>3.089592618597822</v>
       </c>
       <c r="D28">
-        <v>-6.0399739869752098E-2</v>
+        <v>-1.1379071671635141</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>0.64189494561416305</v>
+        <v>0.62807000765066257</v>
       </c>
       <c r="B29">
-        <v>2.847707891124883</v>
+        <v>0.82000521839261109</v>
       </c>
       <c r="C29">
-        <v>-0.9455430978560575</v>
+        <v>1.3570370786200818</v>
       </c>
       <c r="D29">
-        <v>-1.5821628702236388</v>
+        <v>0.88491211744308962</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>0.66866970800580894</v>
+        <v>0.64189494561416305</v>
       </c>
       <c r="B30">
-        <v>1.1581576095154531</v>
+        <v>2.847707891124883</v>
       </c>
       <c r="C30">
-        <v>-0.80099711319791422</v>
+        <v>2.5536613542652318</v>
       </c>
       <c r="D30">
-        <v>-1.1087968115938669</v>
+        <v>3.9828826905353103E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>0.67298515545176807</v>
+        <v>0.66866970800580894</v>
       </c>
       <c r="B31">
-        <v>0.33706509518753103</v>
+        <v>1.1581576095154531</v>
       </c>
       <c r="C31">
-        <v>1.0454211631559471</v>
+        <v>1.6894177680657232</v>
       </c>
       <c r="D31">
-        <v>1.0454211631559471</v>
+        <v>-1.7287987334728205</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>0.68805580068463057</v>
+        <v>0.67298515545176807</v>
       </c>
       <c r="B32">
-        <v>2.4470334123813222</v>
+        <v>0.33706509518753103</v>
       </c>
       <c r="C32">
-        <v>-0.54591145872778113</v>
+        <v>0.44640195153113654</v>
       </c>
       <c r="D32">
-        <v>-1.1825312310953624</v>
+        <v>-3.7110622605542112</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>0.76885272923724324</v>
+        <v>0.68805580068463057</v>
       </c>
       <c r="B33">
-        <v>2.1237676808291259</v>
+        <v>2.4470334123813222</v>
       </c>
       <c r="C33">
-        <v>1.2722701885173164</v>
+        <v>2.1603878219292403</v>
       </c>
       <c r="D33">
-        <v>0.63565041614973505</v>
+        <v>-2.7019243053507571</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>0.79999999999822768</v>
+        <v>0.76885272923724324</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>2.1237676808291259</v>
       </c>
       <c r="C34">
-        <v>-5.1130916711357051</v>
+        <v>3.0501159823653645</v>
       </c>
       <c r="D34">
-        <v>-5.1130916711357051</v>
+        <v>5.8882056504912343E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>0.80000000000333005</v>
+        <v>0.79999999999822768</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>2.0140795634545579</v>
+        <v>-0.19074409900283182</v>
       </c>
       <c r="D35">
-        <v>1.3774597910869764</v>
+        <v>-0.66111022305497202</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>0.80339184361867222</v>
+        <v>0.80000000000333005</v>
       </c>
       <c r="B36">
-        <v>0.57915637452637314</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>-1.058351330503114</v>
+        <v>1.2468202903332368</v>
       </c>
       <c r="D36">
-        <v>-1.058351330503114</v>
+        <v>1.0454211631559471</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>0.81852097360136311</v>
+        <v>0.80339184361867222</v>
       </c>
       <c r="B37">
-        <v>3.3707992824672659</v>
+        <v>0.57915637452637314</v>
       </c>
       <c r="C37">
-        <v>-0.88166785890529342</v>
+        <v>0.38378033098816128</v>
       </c>
       <c r="D37">
-        <v>-1.5182876312728748</v>
+        <v>-2.2449728780707501</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>0.82730992136016146</v>
+        <v>0.81852097360136311</v>
       </c>
       <c r="B38">
-        <v>1.4184506288192</v>
+        <v>3.3707992824672659</v>
       </c>
       <c r="C38">
-        <v>-0.70205433332563627</v>
+        <v>2.752517889593888</v>
       </c>
       <c r="D38">
-        <v>-1.110264688303688</v>
+        <v>-1.2920398519185261</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>0.89270010333458105</v>
+        <v>0.82730992136016146</v>
       </c>
       <c r="B39">
-        <v>1.726659813426805</v>
+        <v>1.4184506288192</v>
       </c>
       <c r="C39">
-        <v>-0.57304510037937417</v>
+        <v>1.3577810403495747</v>
       </c>
       <c r="D39">
-        <v>-1.1673320887213483</v>
+        <v>1.1985200025122424</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>0.91029157744834921</v>
+        <v>0.89270010333458105</v>
       </c>
       <c r="B40">
-        <v>3.0847973408171758</v>
+        <v>1.726659813426805</v>
       </c>
       <c r="C40">
-        <v>-1.7338695793722521</v>
+        <v>2.2920248943969357</v>
       </c>
       <c r="D40">
-        <v>-2.3704893517398333</v>
+        <v>1.7029545131872104</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>0.95150562669469763</v>
+        <v>0.91029157744834921</v>
       </c>
       <c r="B41">
-        <v>3.6648459987363569</v>
+        <v>3.0847973408171758</v>
       </c>
       <c r="C41">
-        <v>0.97961697846358098</v>
+        <v>2.7370402596751457</v>
       </c>
       <c r="D41">
-        <v>0.3429972060959996</v>
+        <v>-2.8596772941644808</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>0.99842776682046297</v>
+        <v>0.95150562669469763</v>
       </c>
       <c r="B42">
-        <v>0.8672336006826572</v>
+        <v>3.6648459987363569</v>
       </c>
       <c r="C42">
-        <v>0.40076611654196037</v>
+        <v>3.0680576464905669</v>
       </c>
       <c r="D42">
-        <v>0.40076611654196037</v>
+        <v>-0.99672929890233242</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>0.99989805208055471</v>
+        <v>0.99842776682046297</v>
       </c>
       <c r="B43">
-        <v>2.353855095406916</v>
+        <v>0.8672336006826572</v>
       </c>
       <c r="C43">
-        <v>-0.65542007955094472</v>
+        <v>0.7393424659988882</v>
       </c>
       <c r="D43">
-        <v>-1.2920398519185261</v>
+        <v>-0.9831526389952927</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1.0043438287268911</v>
+        <v>0.99989805208055471</v>
       </c>
       <c r="B44">
-        <v>0.30618025484916261</v>
+        <v>2.353855095406916</v>
       </c>
       <c r="C44">
-        <v>-2.8596772941644808</v>
+        <v>2.5061829718730939</v>
       </c>
       <c r="D44">
-        <v>-2.8596772941644808</v>
+        <v>-1.4415973735878895</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>1.023278019416193</v>
+        <v>1.0043438287268911</v>
       </c>
       <c r="B45">
-        <v>1.13033142501446</v>
+        <v>0.30618025484916261</v>
       </c>
       <c r="C45">
-        <v>-1.1200742085292774</v>
+        <v>-0.27165613453098664</v>
       </c>
       <c r="D45">
-        <v>-1.1379071671635141</v>
+        <v>1.5791788354469374</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>1.0580237487777211</v>
+        <v>1.023278019416193</v>
       </c>
       <c r="B46">
-        <v>2.691788501636831</v>
+        <v>1.13033142501446</v>
       </c>
       <c r="C46">
-        <v>-0.57120049499004477</v>
+        <v>0.88504297753866179</v>
       </c>
       <c r="D46">
-        <v>-1.2078202673576262</v>
+        <v>1.9668601731450384</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1.12066093714478</v>
+        <v>1.0580237487777211</v>
       </c>
       <c r="B47">
-        <v>2.1080029343497131</v>
+        <v>2.691788501636831</v>
       </c>
       <c r="C47">
-        <v>-2.2758919145919392</v>
+        <v>3.0147943243830375</v>
       </c>
       <c r="D47">
-        <v>-2.9122600392281712</v>
+        <v>0.22451835974761897</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>1.1321833652951869</v>
+        <v>1.12066093714478</v>
       </c>
       <c r="B48">
-        <v>0.55652323496504064</v>
+        <v>2.1080029343497131</v>
       </c>
       <c r="C48">
-        <v>-0.73442708125073131</v>
+        <v>1.6560510545249008</v>
       </c>
       <c r="D48">
-        <v>-0.73442708125073131</v>
+        <v>2.3304028774976246</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1.157562144682649</v>
+        <v>1.1321833652951869</v>
       </c>
       <c r="B49">
-        <v>3.3617780061214559</v>
+        <v>0.55652323496504064</v>
       </c>
       <c r="C49">
-        <v>8.3167341145565593E-2</v>
+        <v>0.26279968355421451</v>
       </c>
       <c r="D49">
-        <v>-0.55345243122201582</v>
+        <v>-1.3272098201145908</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1.186267681156592</v>
+        <v>1.157562144682649</v>
       </c>
       <c r="B50">
-        <v>3.028101713052489</v>
+        <v>3.3617780061214559</v>
       </c>
       <c r="C50">
-        <v>-3.3073952941844413</v>
+        <v>2.4687175839390139</v>
       </c>
       <c r="D50">
-        <v>-3.9440150665520228</v>
+        <v>0.40076611654196037</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>1.194406091396085</v>
+        <v>1.186267681156592</v>
       </c>
       <c r="B51">
-        <v>1.4217344352488519</v>
+        <v>3.028101713052489</v>
       </c>
       <c r="C51">
-        <v>-0.45005378723331374</v>
+        <v>2.4149952290259336</v>
       </c>
       <c r="D51">
-        <v>-0.52783753720722226</v>
+        <v>-0.48212980513368897</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1.1999999999970601</v>
+        <v>1.194406091396085</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1.4217344352488519</v>
       </c>
       <c r="C52">
-        <v>-0.47441343986424667</v>
+        <v>1.4522071820812561</v>
       </c>
       <c r="D52">
-        <v>-0.47441343986424667</v>
+        <v>0.56771642777436615</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>1.2000000000049951</v>
+        <v>1.1999999999970601</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>2.1179989069833614</v>
+        <v>-0.1512335730936275</v>
       </c>
       <c r="D53">
-        <v>1.4813791346157799</v>
+        <v>2.2392685723042072</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>1.2697549802569359</v>
+        <v>1.2000000000049951</v>
       </c>
       <c r="B54">
-        <v>2.4441083458562129</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>-1.092178961105239</v>
+        <v>3.736438610252387</v>
       </c>
       <c r="D54">
-        <v>-1.7287987334728205</v>
+        <v>-1.1087968115938669</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1.3000963996567469</v>
+        <v>1.2697549802569359</v>
       </c>
       <c r="B55">
-        <v>1.071401273727282</v>
+        <v>2.4441083458562129</v>
       </c>
       <c r="C55">
-        <v>0.88491211744308962</v>
+        <v>2.6053615690264276</v>
       </c>
       <c r="D55">
-        <v>0.88491211744308962</v>
+        <v>-0.16533657481991704</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1.3103173994318389</v>
+        <v>1.3000963996567469</v>
       </c>
       <c r="B56">
-        <v>1.8108629913684859</v>
+        <v>1.071401273727282</v>
       </c>
       <c r="C56">
-        <v>-0.6642971611420031</v>
+        <v>0.5687837686414956</v>
       </c>
       <c r="D56">
-        <v>-0.9831526389952927</v>
+        <v>0.63068131156335272</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1.3674589921029221</v>
+        <v>1.3103173994318389</v>
       </c>
       <c r="B57">
-        <v>3.6998488900261228</v>
+        <v>1.8108629913684859</v>
       </c>
       <c r="C57">
-        <v>-1.6083531057031688</v>
+        <v>1.374737705473672</v>
       </c>
       <c r="D57">
-        <v>-2.2449728780707501</v>
+        <v>-3.6063383733646059</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1.4032697635459881</v>
+        <v>1.3674589921029221</v>
       </c>
       <c r="B58">
-        <v>3.1637071966578181</v>
+        <v>3.6998488900261228</v>
       </c>
       <c r="C58">
-        <v>-0.13722835875120815</v>
+        <v>2.0276846738614527</v>
       </c>
       <c r="D58">
-        <v>-0.77384813111878947</v>
+        <v>-3.0327430385335159</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1.4111879468743671</v>
+        <v>1.4032697635459881</v>
       </c>
       <c r="B59">
-        <v>2.8288837183786408</v>
+        <v>3.1637071966578181</v>
       </c>
       <c r="C59">
-        <v>-0.63133098866109327</v>
+        <v>2.5286431815870558</v>
       </c>
       <c r="D59">
-        <v>-1.2679507610286747</v>
+        <v>-1.787768311979542</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1.4175026080004329</v>
+        <v>1.4111879468743671</v>
       </c>
       <c r="B60">
-        <v>0.36433682441603082</v>
+        <v>2.8288837183786408</v>
       </c>
       <c r="C60">
-        <v>-1.0673369412354301</v>
+        <v>2.7201927881953374</v>
       </c>
       <c r="D60">
-        <v>-1.0673369412354301</v>
+        <v>-3.153006390255356</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1.433305024099971</v>
+        <v>1.4175026080004329</v>
       </c>
       <c r="B61">
-        <v>0.75506006863738073</v>
+        <v>0.36433682441603082</v>
       </c>
       <c r="C61">
-        <v>-1.6985244917782534</v>
+        <v>-3.9963476706469568E-2</v>
       </c>
       <c r="D61">
-        <v>-1.6985244917782534</v>
+        <v>-1.7559437774395625</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1.4824423582933131</v>
+        <v>1.433305024099971</v>
       </c>
       <c r="B62">
-        <v>2.1887636794112768</v>
+        <v>0.75506006863738073</v>
       </c>
       <c r="C62">
-        <v>-2.1404696764890674</v>
+        <v>-0.29049964249797783</v>
       </c>
       <c r="D62">
-        <v>-2.6509542468390608</v>
+        <v>-1.5808917634885522</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1.4955967963305219</v>
+        <v>1.4824423582933131</v>
       </c>
       <c r="B63">
-        <v>1.5622252921332309</v>
+        <v>2.1887636794112768</v>
       </c>
       <c r="C63">
-        <v>0.60944169092576006</v>
+        <v>1.93700414491573</v>
       </c>
       <c r="D63">
-        <v>0.60249379013268078</v>
+        <v>-1.4451943320503369</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>1.5463168383708781</v>
+        <v>1.4955967963305219</v>
       </c>
       <c r="B64">
-        <v>2.4933561459538991</v>
+        <v>1.5622252921332309</v>
       </c>
       <c r="C64">
-        <v>-3.0788381582565769</v>
+        <v>1.1518701791753634</v>
       </c>
       <c r="D64">
-        <v>-3.7110622605542112</v>
+        <v>8.1466735469769902E-2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1.5573423698964579</v>
+        <v>1.5463168383708781</v>
       </c>
       <c r="B65">
-        <v>1.291650962576542</v>
+        <v>2.4933561459538991</v>
       </c>
       <c r="C65">
-        <v>1.5791788354469374</v>
+        <v>2.3232593609894332</v>
       </c>
       <c r="D65">
-        <v>1.5791788354469374</v>
+        <v>1.1607497655664381</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>1.559112079828751</v>
+        <v>1.5573423698964579</v>
       </c>
       <c r="B66">
-        <v>3.4086484370736021</v>
+        <v>1.291650962576542</v>
       </c>
       <c r="C66">
-        <v>-1.2792894485354001</v>
+        <v>0.74603963228802195</v>
       </c>
       <c r="D66">
-        <v>-1.9159092209029813</v>
+        <v>-1.9993272303893992</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>1.599999999995892</v>
+        <v>1.559112079828751</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>3.4086484370736021</v>
       </c>
       <c r="C67">
-        <v>-0.47139722868960632</v>
+        <v>2.7767962218725826</v>
       </c>
       <c r="D67">
-        <v>-0.47139722868960632</v>
+        <v>0.7920237152599745</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>1.6000000000066601</v>
+        <v>1.599999999995892</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>1.1183876161471518</v>
+        <v>6.5972549963681038E-3</v>
       </c>
       <c r="D68">
-        <v>0.48176784377957038</v>
+        <v>-0.67614012450250449</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1.6159074661663491</v>
+        <v>1.6000000000066601</v>
       </c>
       <c r="B69">
-        <v>1.025337733678088</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>-1.9704434399472699</v>
+        <v>2.0608918430922887</v>
       </c>
       <c r="D69">
-        <v>-1.9704434399472699</v>
+        <v>-1.5821628702236388</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1.6736703456570221</v>
+        <v>1.6159074661663491</v>
       </c>
       <c r="B70">
-        <v>1.859870583781547</v>
+        <v>1.025337733678088</v>
       </c>
       <c r="C70">
-        <v>-1.3187040793726976</v>
+        <v>-1.134906378014555E-2</v>
       </c>
       <c r="D70">
-        <v>-1.3716290673435358</v>
+        <v>1.6181842450157951</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>1.7076578228841439</v>
+        <v>1.6736703456570221</v>
       </c>
       <c r="B71">
-        <v>0.56271766353005581</v>
+        <v>1.859870583781547</v>
       </c>
       <c r="C71">
-        <v>-0.40356176139417921</v>
+        <v>1.1694270225951426</v>
       </c>
       <c r="D71">
-        <v>-0.40356176139417921</v>
+        <v>-0.96622600324443009</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1.748096543207394</v>
+        <v>1.7076578228841439</v>
       </c>
       <c r="B72">
-        <v>3.0758177863606262</v>
+        <v>0.56271766353005581</v>
       </c>
       <c r="C72">
-        <v>-0.36010952653475098</v>
+        <v>-0.52559193598265364</v>
       </c>
       <c r="D72">
-        <v>-0.99672929890233242</v>
+        <v>-4.5215736454253337</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1.7581767377675319</v>
+        <v>1.748096543207394</v>
       </c>
       <c r="B73">
-        <v>3.717720886185218</v>
+        <v>3.0758177863606262</v>
       </c>
       <c r="C73">
-        <v>0.3232955809482117</v>
+        <v>2.4322913892615761</v>
       </c>
       <c r="D73">
-        <v>-0.31332419141936968</v>
+        <v>-3.268099722451054</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>1.796790036146521</v>
+        <v>1.7581767377675319</v>
       </c>
       <c r="B74">
-        <v>2.664988263188842</v>
+        <v>3.717720886185218</v>
       </c>
       <c r="C74">
-        <v>-2.2733455004092891</v>
+        <v>2.4337227501884167</v>
       </c>
       <c r="D74">
-        <v>-2.8830655105354306</v>
+        <v>-2.8555503281716073</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>1.807525189957409</v>
+        <v>1.796790036146521</v>
       </c>
       <c r="B75">
-        <v>1.4959953932593311</v>
+        <v>2.664988263188842</v>
       </c>
       <c r="C75">
-        <v>-0.92254685123058899</v>
+        <v>1.8406268611574594</v>
       </c>
       <c r="D75">
-        <v>-0.92254685123058899</v>
+        <v>-2.620016136215606</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>1.833106061821951</v>
+        <v>1.807525189957409</v>
       </c>
       <c r="B76">
-        <v>2.265367969315101</v>
+        <v>1.4959953932593311</v>
       </c>
       <c r="C76">
-        <v>-2.3583458236337007</v>
+        <v>0.16117481499503963</v>
       </c>
       <c r="D76">
-        <v>-2.6094277274472293</v>
+        <v>1.9493021863779005</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>1.836593788177018</v>
+        <v>1.833106061821951</v>
       </c>
       <c r="B77">
-        <v>0.29350948358105938</v>
+        <v>2.265367969315101</v>
       </c>
       <c r="C77">
-        <v>1.5548242678111228</v>
+        <v>1.4302089528790409</v>
       </c>
       <c r="D77">
-        <v>1.5548242678111228</v>
+        <v>-5.5727962171609198</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>1.8619198502650569</v>
+        <v>1.836593788177018</v>
       </c>
       <c r="B78">
-        <v>0.83748276267633281</v>
+        <v>0.29350948358105938</v>
       </c>
       <c r="C78">
-        <v>0.83385002941611752</v>
+        <v>-0.19609684520332668</v>
       </c>
       <c r="D78">
-        <v>0.83385002941611752</v>
+        <v>0.99633197806649298</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>1.883274719908907</v>
+        <v>1.8619198502650569</v>
       </c>
       <c r="B79">
-        <v>1.149698159263238</v>
+        <v>0.83748276267633281</v>
       </c>
       <c r="C79">
-        <v>-1.5354350021314054</v>
+        <v>5.0247952576815075E-3</v>
       </c>
       <c r="D79">
-        <v>-1.5354350021314054</v>
+        <v>9.4770770318906447E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>1.920108297666018</v>
+        <v>1.883274719908907</v>
       </c>
       <c r="B80">
-        <v>3.4330178570903729</v>
+        <v>1.149698159263238</v>
       </c>
       <c r="C80">
-        <v>-0.44851855416045971</v>
+        <v>-0.12897448877812015</v>
       </c>
       <c r="D80">
-        <v>-1.0851383265280412</v>
+        <v>-2.7496416090211189</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>1.999999999994768</v>
+        <v>1.920108297666018</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>3.4330178570903729</v>
       </c>
       <c r="C81">
-        <v>1.5569664381540946</v>
+        <v>2.4220962829626491</v>
       </c>
       <c r="D81">
-        <v>1.5569664381540946</v>
+        <v>1.1617179692056725</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>2</v>
+        <v>1.999999999994768</v>
       </c>
       <c r="B82">
-        <v>2.0000000000015028</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>1.4409354776238532</v>
+        <v>-0.21802492650190006</v>
       </c>
       <c r="D82">
-        <v>1.4409354776238532</v>
+        <v>-1.7367590430054896</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>2.0000000000082379</v>
+        <v>2</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>2.0000000000015028</v>
       </c>
       <c r="C83">
-        <v>-4.8605017926685212</v>
+        <v>1.5033453206887535</v>
       </c>
       <c r="D83">
-        <v>-5.4971215650361023</v>
+        <v>0.80768453459607092</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>2.0615316136542212</v>
+        <v>2.0000000000082379</v>
       </c>
       <c r="B84">
-        <v>0.55539266423123013</v>
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>3.9828826905353103E-2</v>
+        <v>2.4537331739462003</v>
       </c>
       <c r="D84">
-        <v>3.9828826905353103E-2</v>
+        <v>-6.0399739869752098E-2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>2.0943659971783788</v>
+        <v>2.0615316136542212</v>
       </c>
       <c r="B85">
-        <v>2.8396275178586272</v>
+        <v>0.55539266423123013</v>
       </c>
       <c r="C85">
-        <v>-3.9277083225314557</v>
+        <v>0.27842516161989289</v>
       </c>
       <c r="D85">
-        <v>-4.4677218618861509</v>
+        <v>1.1567705291297625</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>2.0972939587804209</v>
+        <v>2.0943659971783788</v>
       </c>
       <c r="B86">
-        <v>3.1478563391985421</v>
+        <v>2.8396275178586272</v>
       </c>
       <c r="C86">
-        <v>1.1740650573570315</v>
+        <v>1.612878176275589</v>
       </c>
       <c r="D86">
-        <v>0.5374452849894501</v>
+        <v>-2.4748247121646063</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>2.1170161603109792</v>
+        <v>2.0972939587804209</v>
       </c>
       <c r="B87">
-        <v>1.7329153196058169</v>
+        <v>3.1478563391985421</v>
       </c>
       <c r="C87">
-        <v>-1.8655787103092094</v>
+        <v>2.4786639898998817</v>
       </c>
       <c r="D87">
-        <v>-1.8655787103092094</v>
+        <v>3.1883111936875244</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>2.1411025575308602</v>
+        <v>2.1170161603109792</v>
       </c>
       <c r="B88">
-        <v>3.6981652690618398</v>
+        <v>1.7329153196058169</v>
       </c>
       <c r="C88">
-        <v>0.56058422141090192</v>
+        <v>0.5405445167307894</v>
       </c>
       <c r="D88">
-        <v>-7.6035550956679465E-2</v>
+        <v>-0.61499622131030807</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>2.1572607753025612</v>
+        <v>2.1411025575308602</v>
       </c>
       <c r="B89">
-        <v>2.486111774033108</v>
+        <v>3.6981652690618398</v>
       </c>
       <c r="C89">
-        <v>0.21373645652372675</v>
+        <v>2.5400792546675017</v>
       </c>
       <c r="D89">
-        <v>5.844742134981093E-2</v>
+        <v>-1.0851383265280412</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>2.1858135776751642</v>
+        <v>2.1572607753025612</v>
       </c>
       <c r="B90">
-        <v>1.333828532386484</v>
+        <v>2.486111774033108</v>
       </c>
       <c r="C90">
-        <v>-1.3272098201145908</v>
+        <v>1.293592093760104</v>
       </c>
       <c r="D90">
-        <v>-1.3272098201145908</v>
+        <v>-6.2702836984299792E-2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>2.2243195041470409</v>
+        <v>2.1858135776751642</v>
       </c>
       <c r="B91">
-        <v>0.91987019095241584</v>
+        <v>1.333828532386484</v>
       </c>
       <c r="C91">
-        <v>0.18580343116215239</v>
+        <v>-0.17397040313054604</v>
       </c>
       <c r="D91">
-        <v>0.18580343116215239</v>
+        <v>0.66367471138575451</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>2.232870684532648</v>
+        <v>2.2243195041470409</v>
       </c>
       <c r="B92">
-        <v>0.27860974930903942</v>
+        <v>0.91987019095241584</v>
       </c>
       <c r="C92">
-        <v>1.4856387588330142</v>
+        <v>-0.35104325602492692</v>
       </c>
       <c r="D92">
-        <v>1.4856387588330142</v>
+        <v>0.18403430808861493</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>2.2348925598767839</v>
+        <v>2.232870684532648</v>
       </c>
       <c r="B93">
-        <v>3.4221164306029328</v>
+        <v>0.27860974930903942</v>
       </c>
       <c r="C93">
-        <v>-2.0653045329831756</v>
+        <v>-0.186493666979717</v>
       </c>
       <c r="D93">
-        <v>-2.7019243053507571</v>
+        <v>-1.0219139319466457</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>2.2367028142180772</v>
+        <v>2.2348925598767839</v>
       </c>
       <c r="B94">
-        <v>2.1124012032616708</v>
+        <v>3.4221164306029328</v>
       </c>
       <c r="C94">
-        <v>-1.7559437774395625</v>
+        <v>1.9644676449086633</v>
       </c>
       <c r="D94">
-        <v>-1.7559437774395625</v>
+        <v>-1.9019503953783221</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>2.3420438857875139</v>
+        <v>2.2367028142180772</v>
       </c>
       <c r="B95">
-        <v>2.9703063073565499</v>
+        <v>2.1124012032616708</v>
       </c>
       <c r="C95">
-        <v>-1.1377623236366385</v>
+        <v>0.6536737039659094</v>
       </c>
       <c r="D95">
-        <v>-1.5808917634885522</v>
+        <v>1.4856387588330142</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>2.3999999999957802</v>
+        <v>2.3420438857875139</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>2.9703063073565499</v>
       </c>
       <c r="C96">
-        <v>1.9379123807537479</v>
+        <v>1.4306618691016837</v>
       </c>
       <c r="D96">
-        <v>1.9379123807537479</v>
+        <v>-0.40208385167202665</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>2.4000000000055501</v>
+        <v>2.3999999999957802</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>0.57391693538328159</v>
+        <v>-0.22003261613336403</v>
       </c>
       <c r="D97">
-        <v>-6.2702836984299792E-2</v>
+        <v>-2.2266343760262868</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>2.4211987073743648</v>
+        <v>2.4000000000055501</v>
       </c>
       <c r="B98">
-        <v>1.513901270630337</v>
+        <v>4</v>
       </c>
       <c r="C98">
-        <v>-2.6889110582097171</v>
+        <v>2.2804237180053595</v>
       </c>
       <c r="D98">
-        <v>-2.6889110582097171</v>
+        <v>0.47799357305536472</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>2.4247107838458621</v>
+        <v>2.4211987073743648</v>
       </c>
       <c r="B99">
-        <v>2.692684637014092</v>
+        <v>1.513901270630337</v>
       </c>
       <c r="C99">
-        <v>1.1026241992478358</v>
+        <v>-4.2226488583074331E-2</v>
       </c>
       <c r="D99">
-        <v>0.99633197806649298</v>
+        <v>-1.0681297685735383</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>2.4248358025138792</v>
+        <v>2.4247107838458621</v>
       </c>
       <c r="B100">
-        <v>0.59001833196095121</v>
+        <v>2.692684637014092</v>
       </c>
       <c r="C100">
-        <v>2.0028266708994713</v>
+        <v>1.2060280525307652</v>
       </c>
       <c r="D100">
-        <v>2.0028266708994713</v>
+        <v>1.9379123807537479</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>2.4425244928628671</v>
+        <v>2.4248358025138792</v>
       </c>
       <c r="B101">
-        <v>3.2329869114865701</v>
+        <v>0.59001833196095121</v>
       </c>
       <c r="C101">
-        <v>-2.462635846157458</v>
+        <v>0.14537728970803176</v>
       </c>
       <c r="D101">
-        <v>-3.0327430385335159</v>
+        <v>-2.3556680622922719</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>2.474900412013826</v>
+        <v>2.4425244928628671</v>
       </c>
       <c r="B102">
-        <v>1.819018600351906</v>
+        <v>3.2329869114865701</v>
       </c>
       <c r="C102">
-        <v>-1.8398392467860183</v>
+        <v>1.4252017801195094</v>
       </c>
       <c r="D102">
-        <v>-1.8398392467860183</v>
+        <v>0.18580343116215239</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>2.490092379627475</v>
+        <v>2.474900412013826</v>
       </c>
       <c r="B103">
-        <v>2.3672916357420259</v>
+        <v>1.819018600351906</v>
       </c>
       <c r="C103">
-        <v>-1.199038583293202</v>
+        <v>-3.5979412602463456E-2</v>
       </c>
       <c r="D103">
-        <v>-1.199038583293202</v>
+        <v>-0.6020567096528977</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>2.5334377498610352</v>
+        <v>2.490092379627475</v>
       </c>
       <c r="B104">
-        <v>3.6161364404925171</v>
+        <v>2.3672916357420259</v>
       </c>
       <c r="C104">
-        <v>-1.455082592556513</v>
+        <v>0.71647865533459876</v>
       </c>
       <c r="D104">
-        <v>-2.0917023649240942</v>
+        <v>0.5374452849894501</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>2.5560870537362361</v>
+        <v>2.5334377498610352</v>
       </c>
       <c r="B105">
-        <v>1.1790428881352319</v>
+        <v>3.6161364404925171</v>
       </c>
       <c r="C105">
-        <v>-1.1495969664647101</v>
+        <v>2.2139927417800522</v>
       </c>
       <c r="D105">
-        <v>-1.1495969664647101</v>
+        <v>-1.5354350021314054</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>2.567524494333326</v>
+        <v>2.5560870537362361</v>
       </c>
       <c r="B106">
-        <v>2.0621403131922542</v>
+        <v>1.1790428881352319</v>
       </c>
       <c r="C106">
-        <v>-0.40208385167202665</v>
+        <v>-5.1896793723291493E-2</v>
       </c>
       <c r="D106">
-        <v>-0.40208385167202665</v>
+        <v>-1.232940916706015</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>2.5753852020081012</v>
+        <v>2.567524494333326</v>
       </c>
       <c r="B107">
-        <v>0.840394867313907</v>
+        <v>2.0621403131922542</v>
       </c>
       <c r="C107">
-        <v>0.7920237152599745</v>
+        <v>8.2567172691451154E-2</v>
       </c>
       <c r="D107">
-        <v>0.7920237152599745</v>
+        <v>-1.8655787103092094</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>2.6260402143751191</v>
+        <v>2.5753852020081012</v>
       </c>
       <c r="B108">
-        <v>0.30079071555189468</v>
+        <v>0.840394867313907</v>
       </c>
       <c r="C108">
-        <v>1.9247153130167931</v>
+        <v>2.8503051050316652E-2</v>
       </c>
       <c r="D108">
-        <v>1.9247153130167931</v>
+        <v>-1.8304217435389147</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>2.6956101815861659</v>
+        <v>2.6260402143751191</v>
       </c>
       <c r="B109">
-        <v>1.563944171189495</v>
+        <v>0.30079071555189468</v>
       </c>
       <c r="C109">
-        <v>-0.6020567096528977</v>
+        <v>5.7217604617868616E-2</v>
       </c>
       <c r="D109">
-        <v>-0.6020567096528977</v>
+        <v>-1.199038583293202</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>2.7047669459006221</v>
+        <v>2.6956101815861659</v>
       </c>
       <c r="B110">
-        <v>2.9541253008267718</v>
+        <v>1.563944171189495</v>
       </c>
       <c r="C110">
-        <v>-0.97535221541168748</v>
+        <v>-4.3074759841693448E-2</v>
       </c>
       <c r="D110">
-        <v>-1.0681297685735383</v>
+        <v>1.9247153130167931</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>2.7632378869466301</v>
+        <v>2.7047669459006221</v>
       </c>
       <c r="B111">
-        <v>2.2583017898999929</v>
+        <v>2.9541253008267718</v>
       </c>
       <c r="C111">
-        <v>-0.57469883911046182</v>
+        <v>0.94281576937970868</v>
       </c>
       <c r="D111">
-        <v>-0.57469883911046182</v>
+        <v>-1.1495969664647101</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>2.7985319668236852</v>
+        <v>2.7632378869466301</v>
       </c>
       <c r="B112">
-        <v>0.97736048071705661</v>
+        <v>2.2583017898999929</v>
       </c>
       <c r="C112">
-        <v>-0.61499622131030807</v>
+        <v>0.3644449257576608</v>
       </c>
       <c r="D112">
-        <v>-0.61499622131030807</v>
+        <v>-7.6035550956679465E-2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>2.7999999999968348</v>
+        <v>2.7985319668236852</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>0.97736048071705661</v>
       </c>
       <c r="C113">
-        <v>2.3855777521044907</v>
+        <v>0.24698567610244257</v>
       </c>
       <c r="D113">
-        <v>2.3855777521044907</v>
+        <v>1.8329430086180869</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>2.8000000000027749</v>
+        <v>2.7999999999968348</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>-3.5399297136721284</v>
+        <v>0.27636116043134079</v>
       </c>
       <c r="D114">
-        <v>-4.1765494860397094</v>
+        <v>-0.12937458700241111</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>2.8113501142600441</v>
+        <v>2.8000000000027749</v>
       </c>
       <c r="B115">
-        <v>1.92880932423186</v>
+        <v>4</v>
       </c>
       <c r="C115">
-        <v>-2.3556680622922719</v>
+        <v>2.2976946817089705</v>
       </c>
       <c r="D115">
-        <v>-2.3556680622922719</v>
+        <v>-1.7345927049066816</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>2.8115548571683382</v>
+        <v>2.8113501142600441</v>
       </c>
       <c r="B116">
-        <v>2.5625551517993199</v>
+        <v>1.92880932423186</v>
       </c>
       <c r="C116">
-        <v>-0.16533657481991704</v>
+        <v>-0.4664157409471929</v>
       </c>
       <c r="D116">
-        <v>-0.16533657481991704</v>
+        <v>1.8917497666821732E-2</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>2.8128878457873641</v>
+        <v>2.8115548571683382</v>
       </c>
       <c r="B117">
-        <v>3.3354524954581688</v>
+        <v>2.5625551517993199</v>
       </c>
       <c r="C117">
-        <v>-1.1043386902500056</v>
+        <v>0.4201474360390362</v>
       </c>
       <c r="D117">
-        <v>-1.4451943320503369</v>
+        <v>1.3068180875961091</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>2.828867596366146</v>
+        <v>2.8128878457873641</v>
       </c>
       <c r="B118">
-        <v>0.6450518044072201</v>
+        <v>3.3354524954581688</v>
       </c>
       <c r="C118">
-        <v>1.1607497655664381</v>
+        <v>1.4359596193877293</v>
       </c>
       <c r="D118">
-        <v>1.1607497655664381</v>
+        <v>0.83385002941611752</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>2.9203955714806349</v>
+        <v>2.828867596366146</v>
       </c>
       <c r="B119">
-        <v>3.7255642789809271</v>
+        <v>0.6450518044072201</v>
       </c>
       <c r="C119">
-        <v>-4.9939642164262086</v>
+        <v>-0.28474248384724754</v>
       </c>
       <c r="D119">
-        <v>-5.5727962171609198</v>
+        <v>-3.9440150665520228</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>2.948433370489028</v>
+        <v>2.9203955714806349</v>
       </c>
       <c r="B120">
-        <v>1.291469172993128</v>
+        <v>3.7255642789809271</v>
       </c>
       <c r="C120">
-        <v>0.22451835974761897</v>
+        <v>1.3135553317497424</v>
       </c>
       <c r="D120">
-        <v>0.22451835974761897</v>
+        <v>-1.2679507610286747</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>2.961691431033127</v>
+        <v>2.948433370489028</v>
       </c>
       <c r="B121">
-        <v>1.651423768358224</v>
+        <v>1.291469172993128</v>
       </c>
       <c r="C121">
-        <v>-1.4415973735878895</v>
+        <v>0.23913552948745576</v>
       </c>
       <c r="D121">
-        <v>-1.4415973735878895</v>
+        <v>2.3855777521044907</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>3.0175481395722179</v>
+        <v>2.961691431033127</v>
       </c>
       <c r="B122">
-        <v>2.8034205483322321</v>
+        <v>1.651423768358224</v>
       </c>
       <c r="C122">
-        <v>-1.9993272303893992</v>
+        <v>-0.53076266101514291</v>
       </c>
       <c r="D122">
-        <v>-1.9993272303893992</v>
+        <v>-4.1765494860397094</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>3.048278493577703</v>
+        <v>3.0175481395722179</v>
       </c>
       <c r="B123">
-        <v>0.33783127693462078</v>
+        <v>2.8034205483322321</v>
       </c>
       <c r="C123">
-        <v>1.9493021863779005</v>
+        <v>0.56909825756816079</v>
       </c>
       <c r="D123">
-        <v>1.9493021863779005</v>
+        <v>1.6876941009573232</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>3.0674583961208022</v>
+        <v>3.048278493577703</v>
       </c>
       <c r="B124">
-        <v>3.08685267524372</v>
+        <v>0.33783127693462078</v>
       </c>
       <c r="C124">
-        <v>8.2057388997842678E-2</v>
+        <v>7.8295199052048861E-2</v>
       </c>
       <c r="D124">
-        <v>8.1466735469769902E-2</v>
+        <v>-1.9704434399472699</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>3.0783491428524239</v>
+        <v>3.0674583961208022</v>
       </c>
       <c r="B125">
-        <v>2.2513179966780319</v>
+        <v>3.08685267524372</v>
       </c>
       <c r="C125">
-        <v>-0.96622600324443009</v>
+        <v>0.58309344304939803</v>
       </c>
       <c r="D125">
-        <v>-0.96622600324443009</v>
+        <v>-0.73442708125073131</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>3.083886611518913</v>
+        <v>3.0783491428524239</v>
       </c>
       <c r="B126">
-        <v>0.93084367073579644</v>
+        <v>2.2513179966780319</v>
       </c>
       <c r="C126">
-        <v>0.63068131156335272</v>
+        <v>-0.49881886776359302</v>
       </c>
       <c r="D126">
-        <v>0.63068131156335272</v>
+        <v>1.1265870094379762</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>3.1381372493374591</v>
+        <v>3.083886611518913</v>
       </c>
       <c r="B127">
-        <v>1.895518623133178</v>
+        <v>0.93084367073579644</v>
       </c>
       <c r="C127">
-        <v>1.6181842450157951</v>
+        <v>-5.6761355381269099E-3</v>
       </c>
       <c r="D127">
-        <v>1.6181842450157951</v>
+        <v>-0.47441343986424667</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>3.1520944810316012</v>
+        <v>3.1381372493374591</v>
       </c>
       <c r="B128">
-        <v>2.5812511508409051</v>
+        <v>1.895518623133178</v>
       </c>
       <c r="C128">
-        <v>-1.9019503953783221</v>
-      </c>
-      <c r="D128">
-        <v>-1.9019503953783221</v>
+        <v>8.0909212250777643E-2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>3.1744009846418302</v>
+        <v>3.1520944810316012</v>
       </c>
       <c r="B129">
-        <v>0.64196077851875921</v>
+        <v>2.5812511508409051</v>
       </c>
       <c r="C129">
-        <v>0.80768453459607092</v>
+        <v>-0.22817004717230494</v>
       </c>
       <c r="D129">
-        <v>0.80768453459607092</v>
+        <v>-4.4136630049179333</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>3.1795966230274799</v>
+        <v>3.1744009846418302</v>
       </c>
       <c r="B130">
-        <v>3.4014104215835261</v>
+        <v>0.64196077851875921</v>
       </c>
       <c r="C130">
-        <v>-2.4353489086192628</v>
+        <v>0.29688100399736317</v>
       </c>
       <c r="D130">
-        <v>-2.5095569464243219</v>
+        <v>-0.52783753720722226</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>3.1999999999978899</v>
+        <v>3.1795966230274799</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>3.4014104215835261</v>
       </c>
       <c r="C131">
-        <v>2.0568390119476527</v>
+        <v>0.97738364521390997</v>
       </c>
       <c r="D131">
-        <v>2.0568390119476527</v>
+        <v>-0.55345243122201582</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>3.2</v>
+        <v>3.1999999999978899</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>-3.945745651841301</v>
+        <v>9.9351956679280734E-2</v>
       </c>
       <c r="D132">
-        <v>-4.5215736454253337</v>
+        <v>-0.17251262165093756</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>3.2264075864813031</v>
+        <v>3.2</v>
       </c>
       <c r="B133">
-        <v>1.553881329879057</v>
+        <v>4</v>
       </c>
       <c r="C133">
-        <v>1.0246808961958518</v>
+        <v>1.9065323532209044</v>
       </c>
       <c r="D133">
-        <v>1.0246808961958518</v>
+        <v>-2.7398427203253926</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>3.308172501751836</v>
+        <v>3.2264075864813031</v>
       </c>
       <c r="B134">
-        <v>3.669632305163633</v>
+        <v>1.553881329879057</v>
       </c>
       <c r="C134">
-        <v>-0.83781151335781023</v>
+        <v>9.9543549014335653E-2</v>
       </c>
       <c r="D134">
-        <v>-1.0219139319466457</v>
+        <v>-2.6889110582097171</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>3.3318967710720102</v>
+        <v>3.308172501751836</v>
       </c>
       <c r="B135">
-        <v>1.1851279111340109</v>
+        <v>3.669632305163633</v>
       </c>
       <c r="C135">
-        <v>0.31177288823403027</v>
+        <v>1.2308916891157922</v>
       </c>
       <c r="D135">
-        <v>0.31177288823403027</v>
+        <v>-0.77384813111878947</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>3.3518660176397259</v>
+        <v>3.3318967710720102</v>
       </c>
       <c r="B136">
-        <v>2.832318462950441</v>
+        <v>1.1851279111340109</v>
       </c>
       <c r="C136">
-        <v>-0.48212980513368897</v>
+        <v>-0.22073689539168731</v>
       </c>
       <c r="D136">
-        <v>-0.48212980513368897</v>
+        <v>1.5569664381540946</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>3.3568860847647128</v>
+        <v>3.3518660176397259</v>
       </c>
       <c r="B137">
-        <v>3.1758391810471909</v>
+        <v>2.832318462950441</v>
       </c>
       <c r="C137">
-        <v>-3.153006390255356</v>
+        <v>-0.26035211715778328</v>
       </c>
       <c r="D137">
-        <v>-3.153006390255356</v>
+        <v>-1.2078202673576262</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>3.400065661636952</v>
+        <v>3.3568860847647128</v>
       </c>
       <c r="B138">
-        <v>0.81955650994540052</v>
+        <v>3.1758391810471909</v>
       </c>
       <c r="C138">
-        <v>1.6876941009573232</v>
+        <v>0.81584240636872485</v>
       </c>
       <c r="D138">
-        <v>1.6876941009573232</v>
+        <v>-2.9122600392281712</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>3.4150452647324738</v>
+        <v>3.400065661636952</v>
       </c>
       <c r="B139">
-        <v>0.38804121066620911</v>
+        <v>0.81955650994540052</v>
       </c>
       <c r="C139">
-        <v>1.3068180875961091</v>
+        <v>9.885683650653812E-2</v>
       </c>
       <c r="D139">
-        <v>1.3068180875961091</v>
+        <v>1.4813791346157799</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>3.4159494155341532</v>
+        <v>3.4150452647324738</v>
       </c>
       <c r="B140">
-        <v>1.76127749148116</v>
+        <v>0.38804121066620911</v>
       </c>
       <c r="C140">
-        <v>1.8329430086180869</v>
+        <v>0.25369672368813584</v>
       </c>
       <c r="D140">
-        <v>1.8329430086180869</v>
+        <v>-1.3716290673435358</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>3.42506129051521</v>
+        <v>3.4159494155341532</v>
       </c>
       <c r="B141">
-        <v>2.075239182785813</v>
+        <v>1.76127749148116</v>
       </c>
       <c r="C141">
-        <v>-1.232940916706015</v>
+        <v>-4.2282838639986303E-2</v>
       </c>
       <c r="D141">
-        <v>-1.232940916706015</v>
+        <v>-2.5095569464243219</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>3.4482386624839241</v>
+        <v>3.42506129051521</v>
       </c>
       <c r="B142">
-        <v>2.4529179354621919</v>
+        <v>2.075239182785813</v>
       </c>
       <c r="C142">
-        <v>-1.787768311979542</v>
+        <v>-0.3576097379713834</v>
       </c>
       <c r="D142">
-        <v>-1.787768311979542</v>
+        <v>3.0840422028397758</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>3.5999999999983339</v>
+        <v>3.4482386624839241</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>2.4529179354621919</v>
       </c>
       <c r="C143">
-        <v>-2.6356036062945787</v>
+        <v>-0.54685577256910956</v>
       </c>
       <c r="D143">
-        <v>-2.8555503281716073</v>
+        <v>-0.57469883911046182</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>3.5999999999989449</v>
+        <v>3.5999999999983339</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C144">
-        <v>1.8917497666821732E-2</v>
+        <v>1.2960604929647819</v>
       </c>
       <c r="D144">
-        <v>1.8917497666821732E-2</v>
+        <v>-1.3163180194693092</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>3.6117793382595278</v>
+        <v>3.5999999999989449</v>
       </c>
       <c r="B145">
-        <v>3.4151215936075161</v>
+        <v>0</v>
       </c>
       <c r="C145">
-        <v>-3.6063383733646059</v>
+        <v>0.14513855912817569</v>
       </c>
       <c r="D145">
-        <v>-3.6063383733646059</v>
+        <v>-2.0225526646014593</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>3.6131305987001698</v>
+        <v>3.6117793382595278</v>
       </c>
       <c r="B146">
-        <v>1.46486890902801</v>
+        <v>3.4151215936075161</v>
       </c>
       <c r="C146">
-        <v>2.3304028774976246</v>
+        <v>0.38789735705764428</v>
       </c>
       <c r="D146">
-        <v>2.3304028774976246</v>
+        <v>-2.6094277274472293</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>3.6199919733349502</v>
+        <v>3.6131305987001698</v>
       </c>
       <c r="B147">
-        <v>3.7807923164616821</v>
+        <v>1.46486890902801</v>
       </c>
       <c r="C147">
-        <v>-2.5802568800681254</v>
+        <v>-0.16987559677567515</v>
       </c>
       <c r="D147">
-        <v>-2.620016136215606</v>
+        <v>1.4409354776238532</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>3.6615582512414191</v>
+        <v>3.6199919733349502</v>
       </c>
       <c r="B148">
-        <v>3.0485741978789722</v>
+        <v>3.7807923164616821</v>
       </c>
       <c r="C148">
-        <v>-2.4748247121646063</v>
+        <v>0.15918379983156658</v>
       </c>
       <c r="D148">
-        <v>-2.4748247121646063</v>
+        <v>1.5548242678111228</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>3.6696000588755271</v>
+        <v>3.6615582512414191</v>
       </c>
       <c r="B149">
-        <v>0.69176106009803429</v>
+        <v>3.0485741978789722</v>
       </c>
       <c r="C149">
-        <v>1.1567705291297625</v>
+        <v>-0.38907848382925131</v>
       </c>
       <c r="D149">
-        <v>1.1567705291297625</v>
+        <v>-0.92254685123058899</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>3.6946295134156282</v>
+        <v>3.6696000588755271</v>
       </c>
       <c r="B150">
-        <v>1.8566361810653631</v>
+        <v>0.69176106009803429</v>
       </c>
       <c r="C150">
-        <v>0.66367471138575451</v>
+        <v>0.20591752390312351</v>
       </c>
       <c r="D150">
-        <v>0.66367471138575451</v>
+        <v>-1.0673369412354301</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>3.695883117851551</v>
+        <v>3.6946295134156282</v>
       </c>
       <c r="B151">
-        <v>2.6287070165651261</v>
+        <v>1.8566361810653631</v>
       </c>
       <c r="C151">
-        <v>-2.7496416090211189</v>
+        <v>-2.7870759676495174E-2</v>
       </c>
       <c r="D151">
-        <v>-2.7496416090211189</v>
+        <v>-5.4971215650361023</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>3.7136357757442329</v>
+        <v>3.695883117851551</v>
       </c>
       <c r="B152">
-        <v>2.2384315031065332</v>
+        <v>2.6287070165651261</v>
       </c>
       <c r="C152">
-        <v>1.1617179692056725</v>
+        <v>-0.39882949133279927</v>
       </c>
       <c r="D152">
-        <v>1.1617179692056725</v>
+        <v>-1.8398392467860183</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>3.7255642789809591</v>
+        <v>3.7136357757442329</v>
       </c>
       <c r="B153">
-        <v>1.0796044285195929</v>
+        <v>2.2384315031065332</v>
       </c>
       <c r="C153">
-        <v>1.9668601731450384</v>
+        <v>-0.21521653832137211</v>
       </c>
       <c r="D153">
-        <v>1.9668601731450384</v>
+        <v>0.31177288823403027</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>3.7807742206011579</v>
+        <v>3.7255642789809591</v>
       </c>
       <c r="B154">
-        <v>0.37996704512695462</v>
+        <v>1.0796044285195929</v>
       </c>
       <c r="C154">
-        <v>0.56771642777436615</v>
+        <v>6.4733728924915787E-2</v>
       </c>
       <c r="D154">
-        <v>0.56771642777436615</v>
+        <v>-1.6985244917782534</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>4</v>
+        <v>3.7807742206011579</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>0.37996704512695462</v>
       </c>
       <c r="C155">
-        <v>0.18403430808861493</v>
+        <v>0.28774893738811219</v>
       </c>
       <c r="D155">
-        <v>0.18403430808861493</v>
+        <v>-0.40356176139417921</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -4875,13 +4872,13 @@
         <v>4</v>
       </c>
       <c r="B156">
-        <v>0.39999999999925662</v>
+        <v>0</v>
       </c>
       <c r="C156">
-        <v>5.8882056504912343E-2</v>
+        <v>0.35928248260175144</v>
       </c>
       <c r="D156">
-        <v>5.8882056504912343E-2</v>
+        <v>-3.4917203722079995</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -4889,13 +4886,13 @@
         <v>4</v>
       </c>
       <c r="B157">
-        <v>0.79999999999822768</v>
+        <v>0.39999999999925662</v>
       </c>
       <c r="C157">
-        <v>1.7029545131872104</v>
+        <v>0.14912974059816436</v>
       </c>
       <c r="D157">
-        <v>1.7029545131872104</v>
+        <v>0.4703769326590953</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -4903,13 +4900,13 @@
         <v>4</v>
       </c>
       <c r="B158">
-        <v>1.1999999999970601</v>
+        <v>0.79999999999822768</v>
       </c>
       <c r="C158">
-        <v>3.0840422028397758</v>
+        <v>4.0668196815909573E-2</v>
       </c>
       <c r="D158">
-        <v>3.0840422028397758</v>
+        <v>0.28052809311599403</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -4917,13 +4914,13 @@
         <v>4</v>
       </c>
       <c r="B159">
-        <v>1.599999999995892</v>
+        <v>1.1999999999970601</v>
       </c>
       <c r="C159">
-        <v>1.1265870094379762</v>
+        <v>0.17104585859983407</v>
       </c>
       <c r="D159">
-        <v>1.1265870094379762</v>
+        <v>-1.4356257391739149</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -4931,13 +4928,13 @@
         <v>4</v>
       </c>
       <c r="B160">
-        <v>1.999999999994768</v>
+        <v>1.599999999995892</v>
       </c>
       <c r="C160">
-        <v>1.1985200025122424</v>
+        <v>-0.20631718516275127</v>
       </c>
       <c r="D160">
-        <v>1.1985200025122424</v>
+        <v>-1.5912527901759934</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -4945,13 +4942,13 @@
         <v>4</v>
       </c>
       <c r="B161">
-        <v>2.3999999999957802</v>
+        <v>1.999999999994768</v>
       </c>
       <c r="C161">
-        <v>9.4770770318906447E-2</v>
+        <v>-0.3673953778645011</v>
       </c>
       <c r="D161">
-        <v>9.4770770318906447E-2</v>
+        <v>-2.0369877674751908</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -4959,13 +4956,13 @@
         <v>4</v>
       </c>
       <c r="B162">
-        <v>2.7999999999968348</v>
+        <v>2.3999999999957802</v>
       </c>
       <c r="C162">
-        <v>-3.268099722451054</v>
+        <v>-7.522481364693398E-2</v>
       </c>
       <c r="D162">
-        <v>-3.268099722451054</v>
+        <v>0.14162801415930282</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -4973,13 +4970,13 @@
         <v>4</v>
       </c>
       <c r="B163">
-        <v>3.1999999999978899</v>
+        <v>2.7999999999968348</v>
       </c>
       <c r="C163">
-        <v>-4.4136630049179333</v>
+        <v>-0.34169693191231038</v>
       </c>
       <c r="D163">
-        <v>-4.4136630049179333</v>
+        <v>-2.241578034078076</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -4987,13 +4984,13 @@
         <v>4</v>
       </c>
       <c r="B164">
-        <v>3.5999999999989449</v>
+        <v>3.1999999999978899</v>
       </c>
       <c r="C164">
-        <v>-1.8304217435389147</v>
+        <v>-0.59446612348015715</v>
       </c>
       <c r="D164">
-        <v>-1.8304217435389147</v>
+        <v>-1.1909584575450545</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -5001,19 +4998,33 @@
         <v>4</v>
       </c>
       <c r="B165">
+        <v>3.5999999999989449</v>
+      </c>
+      <c r="C165">
+        <v>0.33892499701348144</v>
+      </c>
+      <c r="D165">
+        <v>-3.7269199784843878</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
         <v>4</v>
       </c>
-      <c r="C165">
-        <v>3.1883111936875244</v>
-      </c>
-      <c r="D165">
-        <v>3.1883111936875244</v>
+      <c r="B166">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>-1.3799812295018556</v>
+      </c>
+      <c r="D166">
+        <v>-2.5408537852771063</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D165">
-    <sortCondition ref="A1:A165"/>
-    <sortCondition ref="B1:B165"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D166">
+    <sortCondition ref="A1:A166"/>
+    <sortCondition ref="B1:B166"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
